--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB8BC84C-EC78-A846-A632-C12109D675E4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{241431DD-958E-C241-9CC7-C8062F4AE11D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="580" windowWidth="30160" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
     <sheet name="全体スケジュール" sheetId="1" r:id="rId2"/>
     <sheet name="使用技術" sheetId="4" r:id="rId3"/>
-    <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId4"/>
+    <sheet name="補足" sheetId="6" r:id="rId4"/>
+    <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="161">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -541,13 +543,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年4月29日(日)まで:</t>
-    <rPh sb="0" eb="1">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>使用技術の特定</t>
     <rPh sb="0" eb="2">
       <t>シヨ</t>
@@ -834,13 +829,6 @@
     <t>開始タスク</t>
     <rPh sb="0" eb="2">
       <t>カイsh</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・要件定義書の作成</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウケn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -871,21 +859,95 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了タスク</t>
+    <t>ネクストステップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中尾さんからのアドバイス</t>
     <rPh sb="0" eb="2">
+      <t>ナk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADHDでのMRIの検索の必要性はどれくらいか</t>
+    <rPh sb="0" eb="23">
+      <t>ケンs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレゼンではADHDとその治療についてわかりやすくて説明する</t>
+    <rPh sb="0" eb="2">
+      <t>チリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネスとしてどれくらいの精度が必要か</t>
+    <rPh sb="0" eb="1">
+      <t>s</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の医療分野ではどの様にAIを利用しているのか</t>
+    <rPh sb="0" eb="1">
+      <t>ホk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度が出なくてもセグメンテーションして、部位を特定してそこに原因があるか見て診断につなげることも可能か</t>
+    <rPh sb="0" eb="2">
+      <t>セイd</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完</t>
+    <rPh sb="0" eb="1">
       <t>カンリョ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・要件定義書の完成</t>
+    <t>2018年4月29日(日):</t>
     <rPh sb="0" eb="1">
-      <t>カイハt</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネクストステップ</t>
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・要件定義書の作成</t>
+    <rPh sb="0" eb="1">
+      <t>シヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・システム設計書-学習モデルの作成</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年4月30日(月)まで:</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続タスク</t>
+    <rPh sb="0" eb="2">
+      <t>ケイゾk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・システム設計書-学習モデルの作成</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1706,7 +1768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2142,6 +2204,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2193,18 +2315,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2214,94 +2363,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2619,10 +2693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2644,31 +2718,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
+      <c r="C4" s="178"/>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="C6" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -2678,10 +2752,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="158" t="s">
+      <c r="C8" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -2690,11 +2764,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="160" t="s">
+      <c r="C10" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -2712,12 +2786,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="159" t="s">
+      <c r="C13" s="179" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="179"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -2728,10 +2802,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="158" t="s">
+      <c r="C15" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="158"/>
+      <c r="D15" s="178"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -2746,11 +2820,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="160" t="s">
+      <c r="C17" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -2760,12 +2834,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="161" t="s">
+      <c r="C19" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -2777,20 +2851,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="164"/>
+      <c r="C22" s="186"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="149"/>
+      <c r="E22" s="168" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -2798,29 +2872,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="150" t="s">
+      <c r="E23" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="151"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="171"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="146" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="147"/>
+      <c r="B24" s="166" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="167"/>
       <c r="D24" s="137" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="152" t="s">
-        <v>94</v>
-      </c>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="153"/>
+        <v>91</v>
+      </c>
+      <c r="E24" s="172" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -2828,13 +2902,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="154" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="155"/>
+      <c r="E25" s="174" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -2842,110 +2916,128 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="156" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="157"/>
+      <c r="E26" s="176" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="177"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="146" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="147"/>
+      <c r="B27" s="166" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="167"/>
       <c r="D27" s="137" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="172" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
+    </row>
+    <row r="28" spans="1:9" ht="102" customHeight="1">
+      <c r="B28" s="166" t="s">
         <v>139</v>
       </c>
-      <c r="E27" s="152" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="153"/>
-    </row>
-    <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="165" t="s">
+      <c r="C28" s="198"/>
+      <c r="D28" s="199" t="s">
         <v>140</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="170" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="172" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="173"/>
-      <c r="G28" s="173"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="174"/>
+      <c r="E28" s="200" t="s">
+        <v>143</v>
+      </c>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="202"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="191"/>
-      <c r="C29" s="192"/>
-      <c r="D29" s="170" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="144" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="169"/>
+      <c r="B29" s="187" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" s="188"/>
+      <c r="D29" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="189" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="198" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="190"/>
-      <c r="D30" s="190"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="197"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="146" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="144" t="s">
+        <v>157</v>
+      </c>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="145"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="187"/>
-      <c r="B31" s="188" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="189"/>
-      <c r="D31" s="193" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="189" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="194"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="195"/>
+      <c r="B31" s="192" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="164"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="82"/>
+      <c r="A32" s="158"/>
+      <c r="B32" s="184" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="182"/>
+      <c r="D32" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="182" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="183"/>
+      <c r="G32" s="183"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="162"/>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="165"/>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="E27:I27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C6:F6"/>
@@ -2953,7 +3045,7 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="E33:H33"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3073,7 +3165,7 @@
       <c r="BB3" s="13"/>
       <c r="BC3" s="10"/>
       <c r="BD3" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BE3" s="13"/>
       <c r="BF3" s="13"/>
@@ -3258,19 +3350,19 @@
       <c r="BF4" s="68">
         <v>3</v>
       </c>
-      <c r="BG4" s="181">
+      <c r="BG4" s="152">
         <v>4</v>
       </c>
-      <c r="BH4" s="181">
+      <c r="BH4" s="152">
         <v>5</v>
       </c>
-      <c r="BI4" s="181">
+      <c r="BI4" s="152">
         <v>6</v>
       </c>
-      <c r="BJ4" s="181">
+      <c r="BJ4" s="152">
         <v>7</v>
       </c>
-      <c r="BK4" s="181">
+      <c r="BK4" s="152">
         <v>8</v>
       </c>
       <c r="BL4" s="68">
@@ -3279,19 +3371,19 @@
       <c r="BM4" s="68">
         <v>10</v>
       </c>
-      <c r="BN4" s="181">
+      <c r="BN4" s="152">
         <v>11</v>
       </c>
-      <c r="BO4" s="181">
+      <c r="BO4" s="152">
         <v>12</v>
       </c>
-      <c r="BP4" s="181">
+      <c r="BP4" s="152">
         <v>13</v>
       </c>
-      <c r="BQ4" s="181">
+      <c r="BQ4" s="152">
         <v>14</v>
       </c>
-      <c r="BR4" s="181">
+      <c r="BR4" s="152">
         <v>15</v>
       </c>
       <c r="BS4" s="68">
@@ -3300,19 +3392,19 @@
       <c r="BT4" s="68">
         <v>17</v>
       </c>
-      <c r="BU4" s="181">
+      <c r="BU4" s="152">
         <v>18</v>
       </c>
-      <c r="BV4" s="181">
+      <c r="BV4" s="152">
         <v>19</v>
       </c>
-      <c r="BW4" s="181">
+      <c r="BW4" s="152">
         <v>20</v>
       </c>
-      <c r="BX4" s="181">
+      <c r="BX4" s="152">
         <v>21</v>
       </c>
-      <c r="BY4" s="181">
+      <c r="BY4" s="152">
         <v>22</v>
       </c>
       <c r="BZ4" s="68">
@@ -3321,19 +3413,19 @@
       <c r="CA4" s="68">
         <v>24</v>
       </c>
-      <c r="CB4" s="181">
+      <c r="CB4" s="152">
         <v>25</v>
       </c>
-      <c r="CC4" s="181">
+      <c r="CC4" s="152">
         <v>26</v>
       </c>
-      <c r="CD4" s="181">
+      <c r="CD4" s="152">
         <v>27</v>
       </c>
-      <c r="CE4" s="181">
+      <c r="CE4" s="152">
         <v>28</v>
       </c>
-      <c r="CF4" s="181">
+      <c r="CF4" s="152">
         <v>29</v>
       </c>
       <c r="CG4" s="68">
@@ -3665,7 +3757,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="136" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="100" t="s">
         <v>8</v>
@@ -3870,7 +3962,9 @@
       <c r="J10" s="23">
         <v>43219</v>
       </c>
-      <c r="K10" s="21"/>
+      <c r="K10" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="L10" s="43"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
@@ -3881,7 +3975,7 @@
       <c r="S10" s="97"/>
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
-      <c r="V10" s="175"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="30"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="56"/>
@@ -4051,13 +4145,13 @@
         <v>11</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="22">
-        <v>43220</v>
+        <v>43219</v>
       </c>
       <c r="J12" s="23">
         <v>43224</v>
@@ -4074,7 +4168,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
+      <c r="W12" s="30"/>
       <c r="X12" s="89"/>
       <c r="Y12" s="93"/>
       <c r="Z12" s="24"/>
@@ -4107,7 +4201,7 @@
       <c r="BA12" s="18"/>
       <c r="BB12" s="18"/>
       <c r="BC12" s="57"/>
-      <c r="BD12" s="176"/>
+      <c r="BD12" s="147"/>
       <c r="BE12" s="92"/>
       <c r="BF12" s="92"/>
       <c r="BG12" s="92"/>
@@ -4177,8 +4271,8 @@
       <c r="Z13" s="91"/>
       <c r="AA13" s="91"/>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="185"/>
-      <c r="AD13" s="185"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="156"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
@@ -4291,39 +4385,39 @@
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="61"/>
-      <c r="BD14" s="177"/>
-      <c r="BE14" s="178"/>
-      <c r="BF14" s="178"/>
-      <c r="BG14" s="178"/>
-      <c r="BH14" s="178"/>
-      <c r="BI14" s="178"/>
-      <c r="BJ14" s="178"/>
-      <c r="BK14" s="178"/>
-      <c r="BL14" s="178"/>
-      <c r="BM14" s="178"/>
-      <c r="BN14" s="178"/>
-      <c r="BO14" s="178"/>
-      <c r="BP14" s="178"/>
-      <c r="BQ14" s="178"/>
-      <c r="BR14" s="178"/>
-      <c r="BS14" s="178"/>
-      <c r="BT14" s="178"/>
-      <c r="BU14" s="178"/>
-      <c r="BV14" s="178"/>
-      <c r="BW14" s="178"/>
-      <c r="BX14" s="178"/>
-      <c r="BY14" s="178"/>
-      <c r="BZ14" s="178"/>
-      <c r="CA14" s="178"/>
-      <c r="CB14" s="178"/>
-      <c r="CC14" s="178"/>
-      <c r="CD14" s="178"/>
-      <c r="CE14" s="178"/>
-      <c r="CF14" s="178"/>
+      <c r="BD14" s="148"/>
+      <c r="BE14" s="149"/>
+      <c r="BF14" s="149"/>
+      <c r="BG14" s="149"/>
+      <c r="BH14" s="149"/>
+      <c r="BI14" s="149"/>
+      <c r="BJ14" s="149"/>
+      <c r="BK14" s="149"/>
+      <c r="BL14" s="149"/>
+      <c r="BM14" s="149"/>
+      <c r="BN14" s="149"/>
+      <c r="BO14" s="149"/>
+      <c r="BP14" s="149"/>
+      <c r="BQ14" s="149"/>
+      <c r="BR14" s="149"/>
+      <c r="BS14" s="149"/>
+      <c r="BT14" s="149"/>
+      <c r="BU14" s="149"/>
+      <c r="BV14" s="149"/>
+      <c r="BW14" s="149"/>
+      <c r="BX14" s="149"/>
+      <c r="BY14" s="149"/>
+      <c r="BZ14" s="149"/>
+      <c r="CA14" s="149"/>
+      <c r="CB14" s="149"/>
+      <c r="CC14" s="149"/>
+      <c r="CD14" s="149"/>
+      <c r="CE14" s="149"/>
+      <c r="CF14" s="149"/>
       <c r="CG14" s="38"/>
     </row>
     <row r="15" spans="1:85">
-      <c r="A15" s="186"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -4526,7 +4620,7 @@
     </row>
     <row r="17" spans="1:85">
       <c r="A17" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="19"/>
@@ -4591,8 +4685,8 @@
       <c r="AZ17" s="30"/>
       <c r="BA17" s="30"/>
       <c r="BB17" s="30"/>
-      <c r="BC17" s="182"/>
-      <c r="BD17" s="183"/>
+      <c r="BC17" s="153"/>
+      <c r="BD17" s="154"/>
       <c r="BE17" s="30"/>
       <c r="BF17" s="30"/>
       <c r="BG17" s="91"/>
@@ -4776,35 +4870,35 @@
       <c r="BA19" s="38"/>
       <c r="BB19" s="38"/>
       <c r="BC19" s="61"/>
-      <c r="BD19" s="177"/>
-      <c r="BE19" s="178"/>
-      <c r="BF19" s="178"/>
-      <c r="BG19" s="178"/>
-      <c r="BH19" s="178"/>
-      <c r="BI19" s="178"/>
-      <c r="BJ19" s="178"/>
-      <c r="BK19" s="178"/>
-      <c r="BL19" s="178"/>
-      <c r="BM19" s="178"/>
-      <c r="BN19" s="178"/>
-      <c r="BO19" s="178"/>
-      <c r="BP19" s="178"/>
-      <c r="BQ19" s="178"/>
-      <c r="BR19" s="178"/>
-      <c r="BS19" s="178"/>
-      <c r="BT19" s="178"/>
-      <c r="BU19" s="178"/>
-      <c r="BV19" s="178"/>
-      <c r="BW19" s="178"/>
-      <c r="BX19" s="178"/>
-      <c r="BY19" s="178"/>
-      <c r="BZ19" s="178"/>
-      <c r="CA19" s="178"/>
-      <c r="CB19" s="178"/>
-      <c r="CC19" s="178"/>
-      <c r="CD19" s="178"/>
-      <c r="CE19" s="178"/>
-      <c r="CF19" s="178"/>
+      <c r="BD19" s="148"/>
+      <c r="BE19" s="149"/>
+      <c r="BF19" s="149"/>
+      <c r="BG19" s="149"/>
+      <c r="BH19" s="149"/>
+      <c r="BI19" s="149"/>
+      <c r="BJ19" s="149"/>
+      <c r="BK19" s="149"/>
+      <c r="BL19" s="149"/>
+      <c r="BM19" s="149"/>
+      <c r="BN19" s="149"/>
+      <c r="BO19" s="149"/>
+      <c r="BP19" s="149"/>
+      <c r="BQ19" s="149"/>
+      <c r="BR19" s="149"/>
+      <c r="BS19" s="149"/>
+      <c r="BT19" s="149"/>
+      <c r="BU19" s="149"/>
+      <c r="BV19" s="149"/>
+      <c r="BW19" s="149"/>
+      <c r="BX19" s="149"/>
+      <c r="BY19" s="149"/>
+      <c r="BZ19" s="149"/>
+      <c r="CA19" s="149"/>
+      <c r="CB19" s="149"/>
+      <c r="CC19" s="149"/>
+      <c r="CD19" s="149"/>
+      <c r="CE19" s="149"/>
+      <c r="CF19" s="149"/>
       <c r="CG19" s="38"/>
     </row>
     <row r="20" spans="1:85">
@@ -4881,7 +4975,7 @@
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
       <c r="BC20" s="57"/>
-      <c r="BD20" s="176"/>
+      <c r="BD20" s="147"/>
       <c r="BE20" s="92"/>
       <c r="BF20" s="92"/>
       <c r="BG20" s="92"/>
@@ -4968,35 +5062,35 @@
       <c r="BA21" s="64"/>
       <c r="BB21" s="64"/>
       <c r="BC21" s="66"/>
-      <c r="BD21" s="179"/>
-      <c r="BE21" s="180"/>
-      <c r="BF21" s="180"/>
-      <c r="BG21" s="180"/>
-      <c r="BH21" s="180"/>
-      <c r="BI21" s="180"/>
-      <c r="BJ21" s="180"/>
-      <c r="BK21" s="180"/>
-      <c r="BL21" s="180"/>
-      <c r="BM21" s="180"/>
-      <c r="BN21" s="180"/>
-      <c r="BO21" s="180"/>
-      <c r="BP21" s="180"/>
-      <c r="BQ21" s="180"/>
-      <c r="BR21" s="180"/>
-      <c r="BS21" s="180"/>
-      <c r="BT21" s="180"/>
-      <c r="BU21" s="180"/>
-      <c r="BV21" s="180"/>
-      <c r="BW21" s="180"/>
-      <c r="BX21" s="180"/>
-      <c r="BY21" s="180"/>
-      <c r="BZ21" s="180"/>
-      <c r="CA21" s="180"/>
-      <c r="CB21" s="180"/>
-      <c r="CC21" s="180"/>
-      <c r="CD21" s="180"/>
-      <c r="CE21" s="180"/>
-      <c r="CF21" s="180"/>
+      <c r="BD21" s="150"/>
+      <c r="BE21" s="151"/>
+      <c r="BF21" s="151"/>
+      <c r="BG21" s="151"/>
+      <c r="BH21" s="151"/>
+      <c r="BI21" s="151"/>
+      <c r="BJ21" s="151"/>
+      <c r="BK21" s="151"/>
+      <c r="BL21" s="151"/>
+      <c r="BM21" s="151"/>
+      <c r="BN21" s="151"/>
+      <c r="BO21" s="151"/>
+      <c r="BP21" s="151"/>
+      <c r="BQ21" s="151"/>
+      <c r="BR21" s="151"/>
+      <c r="BS21" s="151"/>
+      <c r="BT21" s="151"/>
+      <c r="BU21" s="151"/>
+      <c r="BV21" s="151"/>
+      <c r="BW21" s="151"/>
+      <c r="BX21" s="151"/>
+      <c r="BY21" s="151"/>
+      <c r="BZ21" s="151"/>
+      <c r="CA21" s="151"/>
+      <c r="CB21" s="151"/>
+      <c r="CC21" s="151"/>
+      <c r="CD21" s="151"/>
+      <c r="CE21" s="151"/>
+      <c r="CF21" s="151"/>
       <c r="CG21" s="64"/>
     </row>
     <row r="22" spans="1:85">
@@ -5073,7 +5167,7 @@
       <c r="BA22" s="18"/>
       <c r="BB22" s="18"/>
       <c r="BC22" s="57"/>
-      <c r="BD22" s="176"/>
+      <c r="BD22" s="147"/>
       <c r="BE22" s="92"/>
       <c r="BF22" s="92"/>
       <c r="BG22" s="92"/>
@@ -5192,8 +5286,8 @@
       <c r="BW23" s="91"/>
       <c r="BX23" s="91"/>
       <c r="BY23" s="91"/>
-      <c r="BZ23" s="184" t="s">
-        <v>148</v>
+      <c r="BZ23" s="155" t="s">
+        <v>146</v>
       </c>
       <c r="CA23" s="91"/>
       <c r="CB23" s="91"/>
@@ -5318,10 +5412,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="145"/>
+      <c r="A1" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="165"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -5330,54 +5424,54 @@
         <v>1</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="162" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="166"/>
+        <v>109</v>
+      </c>
+      <c r="C3" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="195"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="106">
         <v>2</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="119" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="167" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
+        <v>113</v>
+      </c>
+      <c r="E4" s="196" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="107"/>
       <c r="B5" s="109"/>
       <c r="C5" s="108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" s="124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F5" s="129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="115"/>
     </row>
@@ -5387,13 +5481,13 @@
       <c r="C6" s="96"/>
       <c r="D6" s="96"/>
       <c r="E6" s="125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="113"/>
     </row>
@@ -5403,13 +5497,13 @@
       <c r="C7" s="96"/>
       <c r="D7" s="96"/>
       <c r="E7" s="126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H7" s="113"/>
     </row>
@@ -5421,7 +5515,7 @@
       <c r="E8" s="124"/>
       <c r="F8" s="131"/>
       <c r="G8" s="113" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="113"/>
     </row>
@@ -5431,13 +5525,13 @@
       <c r="C9" s="96"/>
       <c r="D9" s="96"/>
       <c r="E9" s="126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H9" s="113"/>
     </row>
@@ -5449,7 +5543,7 @@
       <c r="E10" s="127"/>
       <c r="F10" s="109"/>
       <c r="G10" s="113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H10" s="113"/>
     </row>
@@ -5461,7 +5555,7 @@
       <c r="E11" s="127"/>
       <c r="F11" s="109"/>
       <c r="G11" s="113" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="113"/>
     </row>
@@ -5473,7 +5567,7 @@
       <c r="E12" s="127"/>
       <c r="F12" s="109"/>
       <c r="G12" s="113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H12" s="113"/>
     </row>
@@ -5485,7 +5579,7 @@
       <c r="E13" s="127"/>
       <c r="F13" s="109"/>
       <c r="G13" s="113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="113"/>
     </row>
@@ -5497,7 +5591,7 @@
       <c r="E14" s="124"/>
       <c r="F14" s="131"/>
       <c r="G14" s="113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="113"/>
     </row>
@@ -5515,19 +5609,19 @@
       <c r="A16" s="107"/>
       <c r="B16" s="109"/>
       <c r="C16" s="108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="124" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F16" s="131" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="115"/>
     </row>
@@ -5537,13 +5631,13 @@
       <c r="C17" s="96"/>
       <c r="D17" s="96"/>
       <c r="E17" s="125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="129" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="113"/>
     </row>
@@ -5553,10 +5647,10 @@
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
       <c r="E18" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="129" t="s">
         <v>129</v>
-      </c>
-      <c r="F18" s="129" t="s">
-        <v>130</v>
       </c>
       <c r="G18" s="113" t="s">
         <v>72</v>
@@ -5569,13 +5663,13 @@
       <c r="C19" s="96"/>
       <c r="D19" s="96"/>
       <c r="E19" s="126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="116" t="s">
         <v>104</v>
-      </c>
-      <c r="G19" s="116" t="s">
-        <v>105</v>
       </c>
       <c r="H19" s="116"/>
     </row>
@@ -5591,20 +5685,20 @@
     </row>
     <row r="21" spans="1:11" ht="45" customHeight="1">
       <c r="A21" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="96" t="s">
-        <v>101</v>
-      </c>
       <c r="C21" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="164" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="168"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="197"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>
@@ -5618,7 +5712,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F22" s="95"/>
       <c r="G22" s="112"/>
@@ -5641,6 +5735,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27636A97-43B0-7C4F-82A0-C10B35A4A7A3}">
+  <dimension ref="A2:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>43219</v>
+      </c>
+      <c r="B2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D7DB61-DC98-C247-B871-EADD615AB919}">
   <dimension ref="A1:CG27"/>
   <sheetViews>
@@ -6158,7 +6305,7 @@
         <v>43213</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="87"/>
@@ -6215,7 +6362,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="100" t="s">
         <v>8</v>
@@ -6227,7 +6374,7 @@
         <v>43214</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="33"/>
       <c r="M8" s="88"/>
@@ -6481,7 +6628,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>10</v>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{241431DD-958E-C241-9CC7-C8062F4AE11D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A1869F8-980D-0145-8ACB-0F888099B02B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="163">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -933,13 +932,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年4月30日(月)まで:</t>
-    <rPh sb="0" eb="1">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>継続タスク</t>
     <rPh sb="0" eb="2">
       <t>ケイゾk</t>
@@ -948,6 +940,27 @@
   </si>
   <si>
     <t>・システム設計書-学習モデルの作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月1日(火)まで:</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年4月30日(月):</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続タスク:</t>
+    <rPh sb="0" eb="1">
+      <t>ケイゾk</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1768,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,62 +2214,125 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2265,13 +2341,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2285,12 +2361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2303,54 +2373,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2363,19 +2385,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2693,10 +2709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2718,31 +2734,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="186" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="178"/>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="178" t="s">
+      <c r="C6" s="186" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="178"/>
-      <c r="E6" s="178"/>
-      <c r="F6" s="178"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -2752,10 +2768,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="186" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="178"/>
+      <c r="D8" s="186"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -2764,11 +2780,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="180" t="s">
+      <c r="C10" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="180"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="168"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -2786,12 +2802,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="179" t="s">
+      <c r="C13" s="187" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="187"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -2802,10 +2818,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="178" t="s">
+      <c r="C15" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="178"/>
+      <c r="D15" s="186"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -2820,11 +2836,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="180" t="s">
+      <c r="C17" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -2834,12 +2850,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="181" t="s">
+      <c r="C19" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="181"/>
+      <c r="D19" s="164"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="164"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -2851,20 +2867,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="185" t="s">
+      <c r="B22" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="186"/>
+      <c r="C22" s="170"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="168" t="s">
+      <c r="E22" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="169"/>
+      <c r="F22" s="189"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="189"/>
+      <c r="I22" s="190"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -2872,29 +2888,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="170" t="s">
+      <c r="E23" s="191" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="171"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="192"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="171" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="167"/>
+      <c r="C24" s="172"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="172" t="s">
+      <c r="E24" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
+      <c r="F24" s="173"/>
+      <c r="G24" s="173"/>
+      <c r="H24" s="173"/>
+      <c r="I24" s="174"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -2902,13 +2918,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="174" t="s">
+      <c r="E25" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="194"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -2916,128 +2932,141 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="176" t="s">
+      <c r="E26" s="195" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="177"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="196"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="171" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="167"/>
+      <c r="C27" s="172"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="172" t="s">
+      <c r="E27" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173"/>
+      <c r="F27" s="173"/>
+      <c r="G27" s="173"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="174"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="171" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="199" t="s">
+      <c r="C28" s="175"/>
+      <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="200" t="s">
+      <c r="E28" s="176" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="202"/>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="178"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="187" t="s">
+      <c r="B29" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="146" t="s">
+      <c r="C29" s="175"/>
+      <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="189" t="s">
+      <c r="E29" s="176" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="190"/>
-      <c r="G29" s="190"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="191"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="178"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="159"/>
-      <c r="C30" s="160"/>
-      <c r="D30" s="146" t="s">
+      <c r="B30" s="202"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="163" t="s">
         <v>142</v>
       </c>
-      <c r="E30" s="144" t="s">
+      <c r="E30" s="161" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="145"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="161"/>
+      <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="181" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="182"/>
+      <c r="D31" s="144" t="s">
+        <v>162</v>
+      </c>
+      <c r="E31" s="183" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="179" t="s">
         <v>147</v>
       </c>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="164"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="158"/>
-      <c r="B32" s="184" t="s">
+      <c r="C32" s="180"/>
+      <c r="D32" s="180"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="156"/>
+      <c r="B33" s="167" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="165"/>
+      <c r="D33" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="C32" s="182"/>
-      <c r="D32" s="161" t="s">
+      <c r="E33" s="165" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="182" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="162"/>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
-    </row>
-    <row r="34" spans="5:8">
-      <c r="E34" s="82"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="158"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="E35" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
+  <mergeCells count="28">
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:I31"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="C6:F6"/>
@@ -3045,13 +3074,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3350,19 +3384,19 @@
       <c r="BF4" s="68">
         <v>3</v>
       </c>
-      <c r="BG4" s="152">
+      <c r="BG4" s="150">
         <v>4</v>
       </c>
-      <c r="BH4" s="152">
+      <c r="BH4" s="150">
         <v>5</v>
       </c>
-      <c r="BI4" s="152">
+      <c r="BI4" s="150">
         <v>6</v>
       </c>
-      <c r="BJ4" s="152">
+      <c r="BJ4" s="150">
         <v>7</v>
       </c>
-      <c r="BK4" s="152">
+      <c r="BK4" s="150">
         <v>8</v>
       </c>
       <c r="BL4" s="68">
@@ -3371,19 +3405,19 @@
       <c r="BM4" s="68">
         <v>10</v>
       </c>
-      <c r="BN4" s="152">
+      <c r="BN4" s="150">
         <v>11</v>
       </c>
-      <c r="BO4" s="152">
+      <c r="BO4" s="150">
         <v>12</v>
       </c>
-      <c r="BP4" s="152">
+      <c r="BP4" s="150">
         <v>13</v>
       </c>
-      <c r="BQ4" s="152">
+      <c r="BQ4" s="150">
         <v>14</v>
       </c>
-      <c r="BR4" s="152">
+      <c r="BR4" s="150">
         <v>15</v>
       </c>
       <c r="BS4" s="68">
@@ -3392,19 +3426,19 @@
       <c r="BT4" s="68">
         <v>17</v>
       </c>
-      <c r="BU4" s="152">
+      <c r="BU4" s="150">
         <v>18</v>
       </c>
-      <c r="BV4" s="152">
+      <c r="BV4" s="150">
         <v>19</v>
       </c>
-      <c r="BW4" s="152">
+      <c r="BW4" s="150">
         <v>20</v>
       </c>
-      <c r="BX4" s="152">
+      <c r="BX4" s="150">
         <v>21</v>
       </c>
-      <c r="BY4" s="152">
+      <c r="BY4" s="150">
         <v>22</v>
       </c>
       <c r="BZ4" s="68">
@@ -3413,19 +3447,19 @@
       <c r="CA4" s="68">
         <v>24</v>
       </c>
-      <c r="CB4" s="152">
+      <c r="CB4" s="150">
         <v>25</v>
       </c>
-      <c r="CC4" s="152">
+      <c r="CC4" s="150">
         <v>26</v>
       </c>
-      <c r="CD4" s="152">
+      <c r="CD4" s="150">
         <v>27</v>
       </c>
-      <c r="CE4" s="152">
+      <c r="CE4" s="150">
         <v>28</v>
       </c>
-      <c r="CF4" s="152">
+      <c r="CF4" s="150">
         <v>29</v>
       </c>
       <c r="CG4" s="68">
@@ -3976,7 +4010,7 @@
       <c r="T10" s="97"/>
       <c r="U10" s="97"/>
       <c r="V10" s="97"/>
-      <c r="W10" s="30"/>
+      <c r="W10" s="87"/>
       <c r="X10" s="25"/>
       <c r="Y10" s="56"/>
       <c r="Z10" s="18"/>
@@ -4168,8 +4202,8 @@
       <c r="T12" s="18"/>
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
-      <c r="W12" s="30"/>
-      <c r="X12" s="89"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="201"/>
       <c r="Y12" s="93"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
@@ -4201,7 +4235,7 @@
       <c r="BA12" s="18"/>
       <c r="BB12" s="18"/>
       <c r="BC12" s="57"/>
-      <c r="BD12" s="147"/>
+      <c r="BD12" s="145"/>
       <c r="BE12" s="92"/>
       <c r="BF12" s="92"/>
       <c r="BG12" s="92"/>
@@ -4271,8 +4305,8 @@
       <c r="Z13" s="91"/>
       <c r="AA13" s="91"/>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="156"/>
-      <c r="AD13" s="156"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
@@ -4385,39 +4419,39 @@
       <c r="BA14" s="38"/>
       <c r="BB14" s="38"/>
       <c r="BC14" s="61"/>
-      <c r="BD14" s="148"/>
-      <c r="BE14" s="149"/>
-      <c r="BF14" s="149"/>
-      <c r="BG14" s="149"/>
-      <c r="BH14" s="149"/>
-      <c r="BI14" s="149"/>
-      <c r="BJ14" s="149"/>
-      <c r="BK14" s="149"/>
-      <c r="BL14" s="149"/>
-      <c r="BM14" s="149"/>
-      <c r="BN14" s="149"/>
-      <c r="BO14" s="149"/>
-      <c r="BP14" s="149"/>
-      <c r="BQ14" s="149"/>
-      <c r="BR14" s="149"/>
-      <c r="BS14" s="149"/>
-      <c r="BT14" s="149"/>
-      <c r="BU14" s="149"/>
-      <c r="BV14" s="149"/>
-      <c r="BW14" s="149"/>
-      <c r="BX14" s="149"/>
-      <c r="BY14" s="149"/>
-      <c r="BZ14" s="149"/>
-      <c r="CA14" s="149"/>
-      <c r="CB14" s="149"/>
-      <c r="CC14" s="149"/>
-      <c r="CD14" s="149"/>
-      <c r="CE14" s="149"/>
-      <c r="CF14" s="149"/>
+      <c r="BD14" s="146"/>
+      <c r="BE14" s="147"/>
+      <c r="BF14" s="147"/>
+      <c r="BG14" s="147"/>
+      <c r="BH14" s="147"/>
+      <c r="BI14" s="147"/>
+      <c r="BJ14" s="147"/>
+      <c r="BK14" s="147"/>
+      <c r="BL14" s="147"/>
+      <c r="BM14" s="147"/>
+      <c r="BN14" s="147"/>
+      <c r="BO14" s="147"/>
+      <c r="BP14" s="147"/>
+      <c r="BQ14" s="147"/>
+      <c r="BR14" s="147"/>
+      <c r="BS14" s="147"/>
+      <c r="BT14" s="147"/>
+      <c r="BU14" s="147"/>
+      <c r="BV14" s="147"/>
+      <c r="BW14" s="147"/>
+      <c r="BX14" s="147"/>
+      <c r="BY14" s="147"/>
+      <c r="BZ14" s="147"/>
+      <c r="CA14" s="147"/>
+      <c r="CB14" s="147"/>
+      <c r="CC14" s="147"/>
+      <c r="CD14" s="147"/>
+      <c r="CE14" s="147"/>
+      <c r="CF14" s="147"/>
       <c r="CG14" s="38"/>
     </row>
     <row r="15" spans="1:85">
-      <c r="A15" s="157"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="3">
         <v>4</v>
       </c>
@@ -4685,8 +4719,8 @@
       <c r="AZ17" s="30"/>
       <c r="BA17" s="30"/>
       <c r="BB17" s="30"/>
-      <c r="BC17" s="153"/>
-      <c r="BD17" s="154"/>
+      <c r="BC17" s="151"/>
+      <c r="BD17" s="152"/>
       <c r="BE17" s="30"/>
       <c r="BF17" s="30"/>
       <c r="BG17" s="91"/>
@@ -4870,35 +4904,35 @@
       <c r="BA19" s="38"/>
       <c r="BB19" s="38"/>
       <c r="BC19" s="61"/>
-      <c r="BD19" s="148"/>
-      <c r="BE19" s="149"/>
-      <c r="BF19" s="149"/>
-      <c r="BG19" s="149"/>
-      <c r="BH19" s="149"/>
-      <c r="BI19" s="149"/>
-      <c r="BJ19" s="149"/>
-      <c r="BK19" s="149"/>
-      <c r="BL19" s="149"/>
-      <c r="BM19" s="149"/>
-      <c r="BN19" s="149"/>
-      <c r="BO19" s="149"/>
-      <c r="BP19" s="149"/>
-      <c r="BQ19" s="149"/>
-      <c r="BR19" s="149"/>
-      <c r="BS19" s="149"/>
-      <c r="BT19" s="149"/>
-      <c r="BU19" s="149"/>
-      <c r="BV19" s="149"/>
-      <c r="BW19" s="149"/>
-      <c r="BX19" s="149"/>
-      <c r="BY19" s="149"/>
-      <c r="BZ19" s="149"/>
-      <c r="CA19" s="149"/>
-      <c r="CB19" s="149"/>
-      <c r="CC19" s="149"/>
-      <c r="CD19" s="149"/>
-      <c r="CE19" s="149"/>
-      <c r="CF19" s="149"/>
+      <c r="BD19" s="146"/>
+      <c r="BE19" s="147"/>
+      <c r="BF19" s="147"/>
+      <c r="BG19" s="147"/>
+      <c r="BH19" s="147"/>
+      <c r="BI19" s="147"/>
+      <c r="BJ19" s="147"/>
+      <c r="BK19" s="147"/>
+      <c r="BL19" s="147"/>
+      <c r="BM19" s="147"/>
+      <c r="BN19" s="147"/>
+      <c r="BO19" s="147"/>
+      <c r="BP19" s="147"/>
+      <c r="BQ19" s="147"/>
+      <c r="BR19" s="147"/>
+      <c r="BS19" s="147"/>
+      <c r="BT19" s="147"/>
+      <c r="BU19" s="147"/>
+      <c r="BV19" s="147"/>
+      <c r="BW19" s="147"/>
+      <c r="BX19" s="147"/>
+      <c r="BY19" s="147"/>
+      <c r="BZ19" s="147"/>
+      <c r="CA19" s="147"/>
+      <c r="CB19" s="147"/>
+      <c r="CC19" s="147"/>
+      <c r="CD19" s="147"/>
+      <c r="CE19" s="147"/>
+      <c r="CF19" s="147"/>
       <c r="CG19" s="38"/>
     </row>
     <row r="20" spans="1:85">
@@ -4975,7 +5009,7 @@
       <c r="BA20" s="18"/>
       <c r="BB20" s="18"/>
       <c r="BC20" s="57"/>
-      <c r="BD20" s="147"/>
+      <c r="BD20" s="145"/>
       <c r="BE20" s="92"/>
       <c r="BF20" s="92"/>
       <c r="BG20" s="92"/>
@@ -5062,35 +5096,35 @@
       <c r="BA21" s="64"/>
       <c r="BB21" s="64"/>
       <c r="BC21" s="66"/>
-      <c r="BD21" s="150"/>
-      <c r="BE21" s="151"/>
-      <c r="BF21" s="151"/>
-      <c r="BG21" s="151"/>
-      <c r="BH21" s="151"/>
-      <c r="BI21" s="151"/>
-      <c r="BJ21" s="151"/>
-      <c r="BK21" s="151"/>
-      <c r="BL21" s="151"/>
-      <c r="BM21" s="151"/>
-      <c r="BN21" s="151"/>
-      <c r="BO21" s="151"/>
-      <c r="BP21" s="151"/>
-      <c r="BQ21" s="151"/>
-      <c r="BR21" s="151"/>
-      <c r="BS21" s="151"/>
-      <c r="BT21" s="151"/>
-      <c r="BU21" s="151"/>
-      <c r="BV21" s="151"/>
-      <c r="BW21" s="151"/>
-      <c r="BX21" s="151"/>
-      <c r="BY21" s="151"/>
-      <c r="BZ21" s="151"/>
-      <c r="CA21" s="151"/>
-      <c r="CB21" s="151"/>
-      <c r="CC21" s="151"/>
-      <c r="CD21" s="151"/>
-      <c r="CE21" s="151"/>
-      <c r="CF21" s="151"/>
+      <c r="BD21" s="148"/>
+      <c r="BE21" s="149"/>
+      <c r="BF21" s="149"/>
+      <c r="BG21" s="149"/>
+      <c r="BH21" s="149"/>
+      <c r="BI21" s="149"/>
+      <c r="BJ21" s="149"/>
+      <c r="BK21" s="149"/>
+      <c r="BL21" s="149"/>
+      <c r="BM21" s="149"/>
+      <c r="BN21" s="149"/>
+      <c r="BO21" s="149"/>
+      <c r="BP21" s="149"/>
+      <c r="BQ21" s="149"/>
+      <c r="BR21" s="149"/>
+      <c r="BS21" s="149"/>
+      <c r="BT21" s="149"/>
+      <c r="BU21" s="149"/>
+      <c r="BV21" s="149"/>
+      <c r="BW21" s="149"/>
+      <c r="BX21" s="149"/>
+      <c r="BY21" s="149"/>
+      <c r="BZ21" s="149"/>
+      <c r="CA21" s="149"/>
+      <c r="CB21" s="149"/>
+      <c r="CC21" s="149"/>
+      <c r="CD21" s="149"/>
+      <c r="CE21" s="149"/>
+      <c r="CF21" s="149"/>
       <c r="CG21" s="64"/>
     </row>
     <row r="22" spans="1:85">
@@ -5167,7 +5201,7 @@
       <c r="BA22" s="18"/>
       <c r="BB22" s="18"/>
       <c r="BC22" s="57"/>
-      <c r="BD22" s="147"/>
+      <c r="BD22" s="145"/>
       <c r="BE22" s="92"/>
       <c r="BF22" s="92"/>
       <c r="BG22" s="92"/>
@@ -5286,7 +5320,7 @@
       <c r="BW23" s="91"/>
       <c r="BX23" s="91"/>
       <c r="BY23" s="91"/>
-      <c r="BZ23" s="155" t="s">
+      <c r="BZ23" s="153" t="s">
         <v>146</v>
       </c>
       <c r="CA23" s="91"/>
@@ -5412,10 +5446,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="188" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="165"/>
+      <c r="B1" s="188"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -5426,14 +5460,14 @@
       <c r="B3" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="194" t="s">
+      <c r="C3" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
-      <c r="F3" s="194"/>
-      <c r="G3" s="194"/>
-      <c r="H3" s="195"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="198"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="106">
@@ -5448,11 +5482,11 @@
       <c r="D4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="196" t="s">
+      <c r="E4" s="199" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
+      <c r="F4" s="199"/>
+      <c r="G4" s="199"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8">
@@ -5693,12 +5727,12 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="186" t="s">
+      <c r="D21" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="197"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="200"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8A1869F8-980D-0145-8ACB-0F888099B02B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51F83835-939D-7440-9D46-749C9FECFE99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="100" yWindow="1660" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="164">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -943,13 +943,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年5月1日(火)まで:</t>
-    <rPh sb="0" eb="1">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2018年4月30日(月):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
@@ -960,6 +953,20 @@
     <t>継続タスク:</t>
     <rPh sb="0" eb="1">
       <t>ケイゾk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月1日(火):</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月2日(水)まで:</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2274,6 +2281,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2286,27 +2362,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2325,54 +2386,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2385,14 +2398,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2709,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2734,31 +2741,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="186" t="s">
+      <c r="B4" s="184" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="184" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -2768,10 +2775,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="186" t="s">
+      <c r="C8" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="186"/>
+      <c r="D8" s="184"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -2780,11 +2787,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="168"/>
-      <c r="E10" s="168"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -2802,12 +2809,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="187" t="s">
+      <c r="C13" s="185" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="185"/>
+      <c r="F13" s="185"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -2818,10 +2825,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="186"/>
+      <c r="D15" s="184"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -2836,11 +2843,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="168" t="s">
+      <c r="C17" s="186" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -2850,12 +2857,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="187" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="164"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -2867,20 +2874,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="191" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="170"/>
+      <c r="C22" s="192"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="189" t="s">
+      <c r="E22" s="169" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="189"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="189"/>
-      <c r="I22" s="190"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="169"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="170"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -2888,19 +2895,19 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="191" t="s">
+      <c r="E23" s="171" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="192"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="172"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="171" t="s">
+      <c r="B24" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="172"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
@@ -2918,13 +2925,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="193" t="s">
+      <c r="E25" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="194"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -2932,19 +2939,19 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="195" t="s">
+      <c r="E26" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="196"/>
+      <c r="F26" s="177"/>
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="171" t="s">
+      <c r="B27" s="167" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="172"/>
+      <c r="C27" s="168"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
@@ -2957,40 +2964,40 @@
       <c r="I27" s="174"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="171" t="s">
+      <c r="B28" s="167" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="175"/>
+      <c r="C28" s="193"/>
       <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="176" t="s">
+      <c r="E28" s="194" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="196"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="175"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="176" t="s">
+      <c r="E29" s="194" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="178"/>
+      <c r="F29" s="195"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="196"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="B30" s="202"/>
-      <c r="C30" s="203"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="165"/>
       <c r="D30" s="163" t="s">
         <v>142</v>
       </c>
@@ -3003,62 +3010,99 @@
       <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="181" t="s">
+      <c r="B31" s="167" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="193"/>
+      <c r="D31" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="182"/>
-      <c r="D31" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="183" t="s">
+      <c r="E31" s="194" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="184"/>
-      <c r="G31" s="184"/>
-      <c r="H31" s="184"/>
-      <c r="I31" s="185"/>
+      <c r="F31" s="195"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="195"/>
+      <c r="I31" s="196"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="179" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="180"/>
+      <c r="D32" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="E32" s="181" t="s">
+        <v>157</v>
+      </c>
+      <c r="F32" s="182"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="183"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="197" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="180"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="159"/>
-      <c r="G32" s="159"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="156"/>
-      <c r="B33" s="167" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="165"/>
-      <c r="D33" s="157" t="s">
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="159"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="160"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="156"/>
+      <c r="B34" s="190" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="188"/>
+      <c r="D34" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="165" t="s">
+      <c r="E34" s="188" t="s">
         <v>159</v>
       </c>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="158"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="E34" s="188"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="188"/>
-      <c r="H34" s="188"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="158"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="E35" s="82"/>
+      <c r="E35" s="166"/>
+      <c r="F35" s="166"/>
+      <c r="G35" s="166"/>
+      <c r="H35" s="166"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="E36" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E35:H35"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3067,25 +3111,6 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:I31"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3101,7 +3126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2193D-889A-8148-8401-F8C12A62DB6A}">
   <dimension ref="A1:CG24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -4203,8 +4230,8 @@
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="87"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="93"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="203"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
@@ -5446,10 +5473,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="166" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="188"/>
+      <c r="B1" s="166"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -5460,14 +5487,14 @@
       <c r="B3" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="200"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="106">
@@ -5482,11 +5509,11 @@
       <c r="D4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="199" t="s">
+      <c r="E4" s="201" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8">
@@ -5727,12 +5754,12 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="170" t="s">
+      <c r="D21" s="192" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="200"/>
+      <c r="E21" s="192"/>
+      <c r="F21" s="192"/>
+      <c r="G21" s="202"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51F83835-939D-7440-9D46-749C9FECFE99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBF6F986-6D7D-9540-96F1-6FCABFF8A6FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="1660" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
-    <sheet name="全体スケジュール" sheetId="1" r:id="rId2"/>
-    <sheet name="使用技術" sheetId="4" r:id="rId3"/>
-    <sheet name="補足" sheetId="6" r:id="rId4"/>
-    <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId5"/>
+    <sheet name="調査・確認" sheetId="7" r:id="rId2"/>
+    <sheet name="全体スケジュール" sheetId="1" r:id="rId3"/>
+    <sheet name="使用技術" sheetId="4" r:id="rId4"/>
+    <sheet name="補足" sheetId="6" r:id="rId5"/>
+    <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="203">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -965,6 +966,235 @@
   </si>
   <si>
     <t>2018年5月2日(水)まで:</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8067637/all-figures</t>
+  </si>
+  <si>
+    <t>調査・確認</t>
+    <rPh sb="0" eb="2">
+      <t>チョウs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <rPh sb="0" eb="2">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問合せ</t>
+    <rPh sb="0" eb="1">
+      <t>トイアワs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紹介先等</t>
+    <rPh sb="0" eb="9">
+      <t>ショウk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文(注1)のソースプログラムが取得できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文(注1)のソースプログラムがどこかに公開されていないか</t>
+    <rPh sb="0" eb="1">
+      <t>ロンブn</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>コウk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文(注1)の前処理前のデータセットが取得できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論文(注1)の前処理後のデータセットが取得できるか</t>
+    <rPh sb="0" eb="2">
+      <t>ロンブn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(注1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://fcon_1000.projects.nitrc.org/indi/adhd200/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8067637/all-figures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>As per INDI protocol, we simply require that user register with the NITRC and 1000 Functional Connectomes Project to gain access</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.nitrc.org/search/?type_of_search=group&amp;cat=325:Data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判明したこと</t>
+    <rPh sb="0" eb="2">
+      <t>ハンメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For the ADHD-200 global competition, the ADHD-200 consortium released a hold-out dataset from 94 TDC and 77 ADHD patients as well as 26 participants without diagnostic information
+…
+Details of scan parameters, diagnostics criteria and other site-specific protocols are available at http://fcon_1000.projects.nitrc.org/indi/adhd200/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右のダウンロードボタンからデータの属性や属性別の.niiファイルのダウンロードが可能</t>
+    <rPh sb="0" eb="1">
+      <t>ミg</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://fcon_1000.projects.nitrc.org/fcpClassic/FcpTable.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATTENTION: The 1000 Functional Connectomes Project has a new home page at NITRC. Please visit us at: http://fcon_1000.projects.nitrc.org </t>
+    <rPh sb="0" eb="1">
+      <t>ヒダr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://fcon_1000.projects.nitrc.org</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000 Functional Connectomes Project ボタンをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewYork_a_ADHD
+Milham, M.P./Castellanos, F.X.
+(n = 25 [19M/4F]; ages: 20-50; TR = 2; # slices = 39; # timepoints = 192)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順番</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンバn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「Download NewYork_a_ADHD Data」からデータをダウンロードし下記に保存
+/Users/yasu/school/presentation/datasets/NewYork_a_ADHD</t>
+    <rPh sb="0" eb="2">
+      <t>カキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Raw data sharing demands intensive coordinating efforts, huge manpower and large data storing/management facilities. In addition, the preprocessing of medical images frequently requires professional medical knowledge which may be a barrier for other scientific communities (such as machine learning experts) to join in the field of neuroimaging. To address these concerns, Chaogan et al. initiated the R-fMRI maps project (http://mrirc.psych.ac.cn/RfMRIMaps) [29] and encouraged scientists to share the preprocessed data through this project. For the ADHD-200 dataset, they preprocessed the entire hold-out testing dataset and a subset of the original training dataset.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://mrirc.psych.ac.cn/RfMRIMaps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Attention Deficit Hyperactivity Disorder 200 Sample (ADHD-200) (ADHD-200-Consortium, 2012) data. We have released a list of R-fMRI indices for 876 participants (phenotypic data available here).
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Download」からデータをダウンロードし下記に保存
+/Users/yasu/school/presentation/datasets/ADHD200</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>876レコードと属性CSVあり。
+ただし、.rarで圧縮されているため解凍が必要。どう使って良いかわからないが、mat形式。
+http://mrirc.psych.ac.cn/RfMRIMapsDataSharingStructure</t>
+    <rPh sb="0" eb="1">
+      <t>ヒk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nii形式のファイルをどの様にpythonで取り込めるか</t>
+    <rPh sb="0" eb="1">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://nipy.org/nibabel/gettingstarted.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月2日(火):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
     </rPh>
@@ -1788,7 +2018,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2290,12 +2520,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2308,12 +2613,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2326,66 +2625,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2398,8 +2637,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2716,10 +2964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2741,31 +2989,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="184" t="s">
+      <c r="B3" s="191" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
+      <c r="C4" s="191"/>
+      <c r="D4" s="191"/>
+      <c r="E4" s="191"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="184" t="s">
+      <c r="C6" s="191" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="191"/>
+      <c r="F6" s="191"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -2775,10 +3023,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="184" t="s">
+      <c r="C8" s="191" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="184"/>
+      <c r="D8" s="191"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -2787,11 +3035,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="173" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
+      <c r="D10" s="173"/>
+      <c r="E10" s="173"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -2809,12 +3057,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="185" t="s">
+      <c r="C13" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="185"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="185"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -2825,10 +3073,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="184" t="s">
+      <c r="C15" s="191" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="184"/>
+      <c r="D15" s="191"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -2843,11 +3091,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="186" t="s">
+      <c r="C17" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="173"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -2857,12 +3105,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -2874,20 +3122,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="191" t="s">
+      <c r="B22" s="174" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="192"/>
+      <c r="C22" s="175"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="169" t="s">
+      <c r="E22" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="170"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="195"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -2895,29 +3143,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="171" t="s">
+      <c r="E23" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="172"/>
+      <c r="F23" s="196"/>
+      <c r="G23" s="196"/>
+      <c r="H23" s="196"/>
+      <c r="I23" s="197"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="167" t="s">
+      <c r="B24" s="176" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="168"/>
+      <c r="C24" s="177"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="173" t="s">
+      <c r="E24" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="173"/>
-      <c r="G24" s="173"/>
-      <c r="H24" s="173"/>
-      <c r="I24" s="174"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="179"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -2925,13 +3173,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="175" t="s">
+      <c r="E25" s="198" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="176"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="198"/>
+      <c r="I25" s="199"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -2939,61 +3187,61 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="177" t="s">
+      <c r="E26" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="201"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="167" t="s">
+      <c r="B27" s="176" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="168"/>
+      <c r="C27" s="177"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="173" t="s">
+      <c r="E27" s="178" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="173"/>
-      <c r="G27" s="173"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="174"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="179"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="167" t="s">
+      <c r="B28" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="193"/>
+      <c r="C28" s="180"/>
       <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="194" t="s">
+      <c r="E28" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="196"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="183"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="176" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="193"/>
+      <c r="C29" s="180"/>
       <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="194" t="s">
+      <c r="E29" s="181" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="195"/>
-      <c r="G29" s="195"/>
-      <c r="H29" s="195"/>
-      <c r="I29" s="196"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="183"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="164"/>
@@ -3010,27 +3258,27 @@
       <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="167" t="s">
+      <c r="B31" s="176" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="193"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="163" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="194" t="s">
+      <c r="E31" s="181" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="195"/>
-      <c r="G31" s="195"/>
-      <c r="H31" s="195"/>
-      <c r="I31" s="196"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="183"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="179" t="s">
+      <c r="B32" s="176" t="s">
         <v>162</v>
       </c>
       <c r="C32" s="180"/>
-      <c r="D32" s="144" t="s">
+      <c r="D32" s="163" t="s">
         <v>161</v>
       </c>
       <c r="E32" s="181" t="s">
@@ -3042,67 +3290,62 @@
       <c r="I32" s="183"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="197" t="s">
+      <c r="B33" s="186" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" s="187"/>
+      <c r="D33" s="144" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="188" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="190"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="160"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="156"/>
-      <c r="B34" s="190" t="s">
+      <c r="C34" s="185"/>
+      <c r="D34" s="185"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="159"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="160"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="156"/>
+      <c r="B35" s="172" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="188"/>
-      <c r="D34" s="157" t="s">
+      <c r="C35" s="170"/>
+      <c r="D35" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="188" t="s">
+      <c r="E35" s="170" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="158"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="158"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="E36" s="82"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="E37" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E35:H35"/>
+  <mergeCells count="32">
+    <mergeCell ref="E36:H36"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3111,6 +3354,29 @@
     <mergeCell ref="E26:I26"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="E31:I31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3123,6 +3389,311 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44D091-AEF9-7E47-93FF-3C69DC304087}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="166" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="166" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" style="166" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="166"/>
+    <col min="5" max="5" width="5.140625" style="166" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="166" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="209" customWidth="1"/>
+    <col min="8" max="8" width="52" style="166" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61" style="166" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" style="166" customWidth="1"/>
+    <col min="11" max="11" width="25" style="166" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="166"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="166" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="166" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="209" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" s="166" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="166" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="166" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="166">
+        <v>1</v>
+      </c>
+      <c r="B4" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="206">
+        <v>43218</v>
+      </c>
+      <c r="G4" s="209">
+        <v>1</v>
+      </c>
+      <c r="H4" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="208"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="166">
+        <v>2</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="166" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="206">
+        <v>43218</v>
+      </c>
+      <c r="G5" s="209">
+        <v>1</v>
+      </c>
+      <c r="H5" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="I5" s="208"/>
+    </row>
+    <row r="6" spans="1:11" ht="120">
+      <c r="A6" s="166">
+        <v>3</v>
+      </c>
+      <c r="B6" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="206">
+        <v>43222</v>
+      </c>
+      <c r="G6" s="209">
+        <v>1</v>
+      </c>
+      <c r="H6" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="167" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="167"/>
+    </row>
+    <row r="7" spans="1:11" ht="40">
+      <c r="F7" s="206"/>
+      <c r="G7" s="209">
+        <v>2</v>
+      </c>
+      <c r="H7" s="208" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="K7" s="167"/>
+    </row>
+    <row r="8" spans="1:11" ht="60">
+      <c r="F8" s="206"/>
+      <c r="G8" s="209">
+        <v>3</v>
+      </c>
+      <c r="H8" s="208" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" s="167" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" s="167" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="167"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="209">
+        <v>4</v>
+      </c>
+      <c r="H9" s="208" t="s">
+        <v>190</v>
+      </c>
+      <c r="I9" s="166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="100">
+      <c r="G10" s="209">
+        <v>5</v>
+      </c>
+      <c r="H10" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="167" t="s">
+        <v>192</v>
+      </c>
+      <c r="J10" s="167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="200">
+      <c r="A12" s="166">
+        <v>4</v>
+      </c>
+      <c r="B12" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="206">
+        <v>43222</v>
+      </c>
+      <c r="G12" s="209">
+        <v>1</v>
+      </c>
+      <c r="H12" s="208" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="120">
+      <c r="G13" s="209">
+        <v>2</v>
+      </c>
+      <c r="H13" s="208" t="s">
+        <v>196</v>
+      </c>
+      <c r="I13" s="167" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" s="167" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="166">
+        <v>5</v>
+      </c>
+      <c r="B14" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="166" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="206">
+        <v>43222</v>
+      </c>
+      <c r="G14" s="209">
+        <v>1</v>
+      </c>
+      <c r="H14" s="208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="207" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="166" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{88963BE2-EA3C-A246-9A6E-837016779113}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{0B3FFF79-01D5-AA4F-8815-3C9FFE778A6D}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{A081071B-3DAC-844C-8743-CD563C405F1B}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{B3ED6614-790E-B94A-AF22-5807CF954345}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{DA73D31E-1544-234B-BCCE-AF587D8F725A}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{60F66ED7-5409-CA46-9BDC-67EB59645F0A}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{5BD31E3D-E728-8A4E-96D5-B0A4B4BECCE1}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{1B3BD87D-320D-5D4A-A885-3445487F07D9}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{39C99B27-5AB4-F44C-B751-4D8720B3BB8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2193D-889A-8148-8401-F8C12A62DB6A}">
   <dimension ref="A1:CG24"/>
   <sheetViews>
@@ -4231,7 +4802,7 @@
       <c r="V12" s="31"/>
       <c r="W12" s="87"/>
       <c r="X12" s="89"/>
-      <c r="Y12" s="203"/>
+      <c r="Y12" s="168"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="24"/>
@@ -5452,7 +6023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D8E4F4-3EBA-8246-98C2-9B952E78FC21}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -5473,10 +6044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="193" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="166"/>
+      <c r="B1" s="193"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -5487,14 +6058,14 @@
       <c r="B3" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="200"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="203"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="106">
@@ -5509,11 +6080,11 @@
       <c r="D4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="201" t="s">
+      <c r="E4" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8">
@@ -5754,12 +6325,12 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="175" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="202"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="205"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>
@@ -5795,7 +6366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27636A97-43B0-7C4F-82A0-C10B35A4A7A3}">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -5848,7 +6419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D7DB61-DC98-C247-B871-EADD615AB919}">
   <dimension ref="A1:CG27"/>
   <sheetViews>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBF6F986-6D7D-9540-96F1-6FCABFF8A6FB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{382ECCA8-FF31-EB4E-99F6-534586BF8AC6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
-    <sheet name="調査・確認" sheetId="7" r:id="rId2"/>
-    <sheet name="全体スケジュール" sheetId="1" r:id="rId3"/>
-    <sheet name="使用技術" sheetId="4" r:id="rId4"/>
-    <sheet name="補足" sheetId="6" r:id="rId5"/>
-    <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId6"/>
+    <sheet name="全体スケジュール" sheetId="1" r:id="rId2"/>
+    <sheet name="使用技術" sheetId="4" r:id="rId3"/>
+    <sheet name="補足" sheetId="6" r:id="rId4"/>
+    <sheet name="調査・確認" sheetId="7" r:id="rId5"/>
+    <sheet name="資料" sheetId="8" r:id="rId6"/>
+    <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -933,17 +935,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>継続タスク</t>
-    <rPh sb="0" eb="2">
-      <t>ケイゾk</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・システム設計書-学習モデルの作成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2018年4月30日(月):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
@@ -965,13 +956,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年5月2日(水)まで:</t>
-    <rPh sb="0" eb="1">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>https://ieeexplore.ieee.org/document/8067637/all-figures</t>
   </si>
   <si>
@@ -1015,7 +999,7 @@
   </si>
   <si>
     <t>紹介先等</t>
-    <rPh sb="0" eb="9">
+    <rPh sb="0" eb="4">
       <t>ショウk</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1048,10 +1032,7 @@
   <si>
     <t>論文(注1)のソースプログラムがどこかに公開されていないか</t>
     <rPh sb="0" eb="1">
-      <t>ロンブn</t>
-    </rPh>
-    <rPh sb="323" eb="325">
-      <t>コウk</t>
+      <t>ロンブnコウk</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1197,6 +1178,84 @@
     <t>2018年5月2日(火):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxPooling3D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dense</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fMRI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sMRI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Conv3D &amp; BN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dropout &amp; BN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュt</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月4日(木):</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月5日(土)まで:</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了タスク</t>
+    <rPh sb="0" eb="1">
+      <t>カンリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・システム設計書-学習モデルの作成
+    画像データと教師ラベルのマッピング(ラベル付け)</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1208,7 +1267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1323,6 +1382,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1356,7 +1431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -2009,6 +2084,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2018,7 +2159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2523,8 +2664,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2538,93 +2763,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2637,17 +2787,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2964,10 +3159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2989,31 +3184,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="191" t="s">
+      <c r="B3" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="191"/>
-      <c r="D3" s="191"/>
-      <c r="E3" s="191"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="191" t="s">
+      <c r="B4" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -3023,10 +3218,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="194" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="191"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -3035,11 +3230,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -3057,12 +3252,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="192" t="s">
+      <c r="C13" s="195" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -3073,10 +3268,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="191" t="s">
+      <c r="C15" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="191"/>
+      <c r="D15" s="194"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -3091,11 +3286,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="196" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -3105,12 +3300,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="169" t="s">
+      <c r="C19" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="197"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -3122,20 +3317,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="201" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="175"/>
+      <c r="C22" s="202"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="194" t="s">
+      <c r="E22" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="194"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="194"/>
-      <c r="I22" s="195"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -3143,29 +3338,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="196" t="s">
+      <c r="E23" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="196"/>
-      <c r="G23" s="196"/>
-      <c r="H23" s="196"/>
-      <c r="I23" s="197"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="178"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="177"/>
+      <c r="C24" s="174"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="178" t="s">
+      <c r="E24" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="179"/>
+      <c r="F24" s="179"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -3173,13 +3368,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="198" t="s">
+      <c r="E25" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="199"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -3187,61 +3382,61 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="200" t="s">
+      <c r="E26" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
+      <c r="F26" s="183"/>
+      <c r="G26" s="183"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="184"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="173" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="177"/>
+      <c r="C27" s="174"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="178" t="s">
+      <c r="E27" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="180"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="176" t="s">
+      <c r="B28" s="173" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="180"/>
+      <c r="C28" s="185"/>
       <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="181" t="s">
+      <c r="E28" s="186" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="183"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+      <c r="H28" s="187"/>
+      <c r="I28" s="188"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="180"/>
+      <c r="C29" s="185"/>
       <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="181" t="s">
+      <c r="E29" s="186" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="183"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="188"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="164"/>
@@ -3258,94 +3453,133 @@
       <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="176" t="s">
+      <c r="B31" s="173" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="185"/>
+      <c r="D31" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="186" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="188"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="B32" s="173" t="s">
         <v>160</v>
       </c>
-      <c r="C31" s="180"/>
-      <c r="D31" s="163" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="181" t="s">
+      <c r="C32" s="185"/>
+      <c r="D32" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="183"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="B32" s="176" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="180"/>
-      <c r="D32" s="163" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" s="181" t="s">
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="188"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="B33" s="173" t="s">
+        <v>199</v>
+      </c>
+      <c r="C33" s="185"/>
+      <c r="D33" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="186" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="182"/>
-      <c r="G32" s="182"/>
-      <c r="H32" s="182"/>
-      <c r="I32" s="183"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="186" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" s="187"/>
-      <c r="D33" s="144" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="188" t="s">
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="188"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="B34" s="189" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="190"/>
+      <c r="D34" s="144" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="190"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="B34" s="184" t="s">
+      <c r="F34" s="192"/>
+      <c r="G34" s="192"/>
+      <c r="H34" s="192"/>
+      <c r="I34" s="193"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="203" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="159"/>
-      <c r="F34" s="159"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="159"/>
-      <c r="I34" s="160"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="156"/>
-      <c r="B35" s="172" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="170"/>
-      <c r="D35" s="157" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="158"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+    </row>
+    <row r="36" spans="1:9" ht="38" customHeight="1">
+      <c r="A36" s="156"/>
+      <c r="B36" s="200" t="s">
+        <v>211</v>
+      </c>
+      <c r="C36" s="198"/>
+      <c r="D36" s="157" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="198" t="s">
+        <v>213</v>
+      </c>
+      <c r="F36" s="199"/>
+      <c r="G36" s="199"/>
+      <c r="H36" s="199"/>
+      <c r="I36" s="158"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="E37" s="82"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="172"/>
+      <c r="H37" s="172"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="E38" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="34">
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="E36:H36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E37:H37"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3356,27 +3590,6 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:I33"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:I32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3389,316 +3602,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44D091-AEF9-7E47-93FF-3C69DC304087}">
-  <dimension ref="A1:K17"/>
-  <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="5.5703125" style="166" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="166" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52" style="166" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="166"/>
-    <col min="5" max="5" width="5.140625" style="166" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="166" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="209" customWidth="1"/>
-    <col min="8" max="8" width="52" style="166" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61" style="166" customWidth="1"/>
-    <col min="10" max="10" width="43.5703125" style="166" customWidth="1"/>
-    <col min="11" max="11" width="25" style="166" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="166"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="193" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="166" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="166" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" s="166" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="166" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="209" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="166" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="166" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="166" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="166" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="166">
-        <v>1</v>
-      </c>
-      <c r="B4" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="166" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" s="166" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="206">
-        <v>43218</v>
-      </c>
-      <c r="G4" s="209">
-        <v>1</v>
-      </c>
-      <c r="H4" s="208" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="208"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="166">
-        <v>2</v>
-      </c>
-      <c r="B5" s="166" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="166" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="166" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="206">
-        <v>43218</v>
-      </c>
-      <c r="G5" s="209">
-        <v>1</v>
-      </c>
-      <c r="H5" s="208" t="s">
-        <v>182</v>
-      </c>
-      <c r="I5" s="208"/>
-    </row>
-    <row r="6" spans="1:11" ht="120">
-      <c r="A6" s="166">
-        <v>3</v>
-      </c>
-      <c r="B6" s="166" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="166" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="166" t="s">
-        <v>174</v>
-      </c>
-      <c r="E6" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="206">
-        <v>43222</v>
-      </c>
-      <c r="G6" s="209">
-        <v>1</v>
-      </c>
-      <c r="H6" s="208" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="167" t="s">
-        <v>186</v>
-      </c>
-      <c r="K6" s="167"/>
-    </row>
-    <row r="7" spans="1:11" ht="40">
-      <c r="F7" s="206"/>
-      <c r="G7" s="209">
-        <v>2</v>
-      </c>
-      <c r="H7" s="208" t="s">
-        <v>181</v>
-      </c>
-      <c r="I7" s="167" t="s">
-        <v>183</v>
-      </c>
-      <c r="K7" s="167"/>
-    </row>
-    <row r="8" spans="1:11" ht="60">
-      <c r="F8" s="206"/>
-      <c r="G8" s="209">
-        <v>3</v>
-      </c>
-      <c r="H8" s="208" t="s">
-        <v>184</v>
-      </c>
-      <c r="I8" s="167" t="s">
-        <v>189</v>
-      </c>
-      <c r="J8" s="167" t="s">
-        <v>187</v>
-      </c>
-      <c r="K8" s="167"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="G9" s="209">
-        <v>4</v>
-      </c>
-      <c r="H9" s="208" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="166" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="100">
-      <c r="G10" s="209">
-        <v>5</v>
-      </c>
-      <c r="H10" s="208" t="s">
-        <v>188</v>
-      </c>
-      <c r="I10" s="167" t="s">
-        <v>192</v>
-      </c>
-      <c r="J10" s="167" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="200">
-      <c r="A12" s="166">
-        <v>4</v>
-      </c>
-      <c r="B12" s="166" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="166" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="166" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="206">
-        <v>43222</v>
-      </c>
-      <c r="G12" s="209">
-        <v>1</v>
-      </c>
-      <c r="H12" s="208" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="167" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="120">
-      <c r="G13" s="209">
-        <v>2</v>
-      </c>
-      <c r="H13" s="208" t="s">
-        <v>196</v>
-      </c>
-      <c r="I13" s="167" t="s">
-        <v>197</v>
-      </c>
-      <c r="J13" s="167" t="s">
-        <v>198</v>
-      </c>
-      <c r="K13" s="167" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="166">
-        <v>5</v>
-      </c>
-      <c r="B14" s="166" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="166" t="s">
-        <v>200</v>
-      </c>
-      <c r="D14" s="166" t="s">
-        <v>169</v>
-      </c>
-      <c r="E14" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="206">
-        <v>43222</v>
-      </c>
-      <c r="G14" s="209">
-        <v>1</v>
-      </c>
-      <c r="H14" s="208" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="207" t="s">
-        <v>179</v>
-      </c>
-      <c r="B17" s="166" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" xr:uid="{88963BE2-EA3C-A246-9A6E-837016779113}"/>
-    <hyperlink ref="H6" r:id="rId2" xr:uid="{0B3FFF79-01D5-AA4F-8815-3C9FFE778A6D}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{A081071B-3DAC-844C-8743-CD563C405F1B}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{B3ED6614-790E-B94A-AF22-5807CF954345}"/>
-    <hyperlink ref="H8" r:id="rId5" xr:uid="{DA73D31E-1544-234B-BCCE-AF587D8F725A}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{60F66ED7-5409-CA46-9BDC-67EB59645F0A}"/>
-    <hyperlink ref="H12" r:id="rId7" xr:uid="{5BD31E3D-E728-8A4E-96D5-B0A4B4BECCE1}"/>
-    <hyperlink ref="H13" r:id="rId8" xr:uid="{1B3BD87D-320D-5D4A-A885-3445487F07D9}"/>
-    <hyperlink ref="H14" r:id="rId9" xr:uid="{39C99B27-5AB4-F44C-B751-4D8720B3BB8B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2193D-889A-8148-8401-F8C12A62DB6A}">
   <dimension ref="A1:CG24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4801,10 +4709,10 @@
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="87"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="24"/>
+      <c r="X12" s="225"/>
+      <c r="Y12" s="226"/>
+      <c r="Z12" s="227"/>
+      <c r="AA12" s="224"/>
       <c r="AB12" s="24"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
@@ -6023,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D8E4F4-3EBA-8246-98C2-9B952E78FC21}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -6044,10 +5952,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="193" t="s">
+      <c r="A1" s="172" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="193"/>
+      <c r="B1" s="172"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -6058,14 +5966,14 @@
       <c r="B3" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="202" t="s">
+      <c r="C3" s="205" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="203"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="206"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="106">
@@ -6080,11 +5988,11 @@
       <c r="D4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="204" t="s">
+      <c r="E4" s="207" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
+      <c r="F4" s="207"/>
+      <c r="G4" s="207"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8">
@@ -6325,12 +6233,12 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="175" t="s">
+      <c r="D21" s="202" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="205"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="208"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>
@@ -6366,7 +6274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27636A97-43B0-7C4F-82A0-C10B35A4A7A3}">
   <dimension ref="A2:B7"/>
   <sheetViews>
@@ -6419,7 +6327,877 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44D091-AEF9-7E47-93FF-3C69DC304087}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="166" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="166" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" style="166" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="166"/>
+    <col min="5" max="5" width="5.140625" style="166" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="166" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="171" customWidth="1"/>
+    <col min="8" max="8" width="52" style="166" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61" style="166" customWidth="1"/>
+    <col min="10" max="10" width="43.5703125" style="166" customWidth="1"/>
+    <col min="11" max="11" width="25" style="166" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="166"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="172" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="166" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="166" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="166" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="171" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="166" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="166" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="166" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="166">
+        <v>1</v>
+      </c>
+      <c r="B4" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="168">
+        <v>43218</v>
+      </c>
+      <c r="G4" s="171">
+        <v>1</v>
+      </c>
+      <c r="H4" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="I4" s="170"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="166">
+        <v>2</v>
+      </c>
+      <c r="B5" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="166" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="168">
+        <v>43218</v>
+      </c>
+      <c r="G5" s="171">
+        <v>1</v>
+      </c>
+      <c r="H5" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="170"/>
+    </row>
+    <row r="6" spans="1:11" ht="120">
+      <c r="A6" s="166">
+        <v>3</v>
+      </c>
+      <c r="B6" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="168">
+        <v>43222</v>
+      </c>
+      <c r="G6" s="171">
+        <v>1</v>
+      </c>
+      <c r="H6" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="K6" s="167"/>
+    </row>
+    <row r="7" spans="1:11" ht="40">
+      <c r="F7" s="168"/>
+      <c r="G7" s="171">
+        <v>2</v>
+      </c>
+      <c r="H7" s="170" t="s">
+        <v>178</v>
+      </c>
+      <c r="I7" s="167" t="s">
+        <v>180</v>
+      </c>
+      <c r="K7" s="167"/>
+    </row>
+    <row r="8" spans="1:11" ht="40">
+      <c r="F8" s="168"/>
+      <c r="G8" s="171">
+        <v>3</v>
+      </c>
+      <c r="H8" s="170" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="167" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="167" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="167"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="G9" s="171">
+        <v>4</v>
+      </c>
+      <c r="H9" s="170" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" s="166" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="80">
+      <c r="G10" s="171">
+        <v>5</v>
+      </c>
+      <c r="H10" s="170" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="167" t="s">
+        <v>189</v>
+      </c>
+      <c r="J10" s="167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="200">
+      <c r="A12" s="166">
+        <v>4</v>
+      </c>
+      <c r="B12" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="166" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="166" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="168">
+        <v>43222</v>
+      </c>
+      <c r="G12" s="171">
+        <v>1</v>
+      </c>
+      <c r="H12" s="170" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="167" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="120">
+      <c r="G13" s="171">
+        <v>2</v>
+      </c>
+      <c r="H13" s="170" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="167" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" s="167" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="166">
+        <v>5</v>
+      </c>
+      <c r="B14" s="166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="166" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="166" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="168">
+        <v>43222</v>
+      </c>
+      <c r="G14" s="171">
+        <v>1</v>
+      </c>
+      <c r="H14" s="170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="169" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="166" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{88963BE2-EA3C-A246-9A6E-837016779113}"/>
+    <hyperlink ref="H6" r:id="rId2" xr:uid="{0B3FFF79-01D5-AA4F-8815-3C9FFE778A6D}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{A081071B-3DAC-844C-8743-CD563C405F1B}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{B3ED6614-790E-B94A-AF22-5807CF954345}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{DA73D31E-1544-234B-BCCE-AF587D8F725A}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{60F66ED7-5409-CA46-9BDC-67EB59645F0A}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{5BD31E3D-E728-8A4E-96D5-B0A4B4BECCE1}"/>
+    <hyperlink ref="H13" r:id="rId8" xr:uid="{1B3BD87D-320D-5D4A-A885-3445487F07D9}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{39C99B27-5AB4-F44C-B751-4D8720B3BB8B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5A3493-0BD5-874D-BE8A-8D1E3644ED0E}">
+  <dimension ref="B4:R28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="6" width="5.7109375" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" customWidth="1"/>
+    <col min="13" max="18" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:18" ht="27">
+      <c r="B4" s="215" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="214" t="s">
+        <v>208</v>
+      </c>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="217" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="217"/>
+      <c r="R4" s="218"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="14"/>
+      <c r="C5" s="212"/>
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="219"/>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="212"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="212"/>
+      <c r="L5" s="212"/>
+      <c r="M5" s="212"/>
+      <c r="N5" s="220"/>
+      <c r="O5" s="212"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="212"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="14"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="220"/>
+      <c r="O6" s="212"/>
+      <c r="P6" s="212"/>
+      <c r="Q6" s="212"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="14"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="212"/>
+      <c r="J7" s="212"/>
+      <c r="K7" s="212"/>
+      <c r="L7" s="212"/>
+      <c r="M7" s="212"/>
+      <c r="N7" s="220"/>
+      <c r="O7" s="212"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="209"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
+      <c r="M8" s="212"/>
+      <c r="N8" s="220"/>
+      <c r="O8" s="212"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="14"/>
+      <c r="C9" s="209" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="209"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="219"/>
+      <c r="G9" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="209"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="220"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="14"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="209"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
+      <c r="M10" s="212"/>
+      <c r="N10" s="220"/>
+      <c r="O10" s="212"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="14"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="209"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
+      <c r="M11" s="212"/>
+      <c r="N11" s="220"/>
+      <c r="O11" s="212"/>
+      <c r="P11" s="212"/>
+      <c r="Q11" s="212"/>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="14"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="209"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
+      <c r="M12" s="212"/>
+      <c r="N12" s="220"/>
+      <c r="O12" s="212"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="14"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="219"/>
+      <c r="G13" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="209"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
+      <c r="L13" s="212"/>
+      <c r="M13" s="212"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="212"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="14"/>
+      <c r="C14" s="212"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="219"/>
+      <c r="G14" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="209"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="212"/>
+      <c r="M14" s="212"/>
+      <c r="N14" s="222"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="14"/>
+      <c r="C15" s="212"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="212"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="212"/>
+      <c r="N15" s="223"/>
+      <c r="O15" s="212"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="19"/>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="14"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="219"/>
+      <c r="G16" s="212"/>
+      <c r="H16" s="212"/>
+      <c r="I16" s="212"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="L16" s="209"/>
+      <c r="M16" s="212"/>
+      <c r="N16" s="223"/>
+      <c r="O16" s="212"/>
+      <c r="P16" s="209" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="19"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="14"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="209" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="209"/>
+      <c r="M17" s="212"/>
+      <c r="N17" s="223"/>
+      <c r="O17" s="212"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="19"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="14"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="212"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="212"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="212"/>
+      <c r="P18" s="212"/>
+      <c r="Q18" s="212"/>
+      <c r="R18" s="19"/>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="14"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="H19" s="209"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="212"/>
+      <c r="K19" s="212"/>
+      <c r="L19" s="212"/>
+      <c r="M19" s="212"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="212"/>
+      <c r="P19" s="212"/>
+      <c r="Q19" s="212"/>
+      <c r="R19" s="19"/>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="14"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="209"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="212"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="212"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="212"/>
+      <c r="P20" s="212"/>
+      <c r="Q20" s="212"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="14"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="209" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" s="209"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="212"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="212"/>
+      <c r="M21" s="212"/>
+      <c r="N21" s="220"/>
+      <c r="O21" s="212"/>
+      <c r="P21" s="212"/>
+      <c r="Q21" s="212"/>
+      <c r="R21" s="19"/>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="14"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="219"/>
+      <c r="G22" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="209"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="212"/>
+      <c r="K22" s="212"/>
+      <c r="L22" s="212"/>
+      <c r="M22" s="212"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="212"/>
+      <c r="P22" s="212"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="19"/>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="14"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="219"/>
+      <c r="G23" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="209"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="212"/>
+      <c r="K23" s="212"/>
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="220"/>
+      <c r="O23" s="212"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="212"/>
+      <c r="R23" s="19"/>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="14"/>
+      <c r="C24" s="209" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="209"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="219"/>
+      <c r="G24" s="209" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="209"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
+      <c r="L24" s="212"/>
+      <c r="M24" s="212"/>
+      <c r="N24" s="220"/>
+      <c r="O24" s="212"/>
+      <c r="P24" s="212"/>
+      <c r="Q24" s="212"/>
+      <c r="R24" s="19"/>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="14"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="209" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" s="209"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="212"/>
+      <c r="K25" s="212"/>
+      <c r="L25" s="212"/>
+      <c r="M25" s="212"/>
+      <c r="N25" s="220"/>
+      <c r="O25" s="212"/>
+      <c r="P25" s="212"/>
+      <c r="Q25" s="212"/>
+      <c r="R25" s="19"/>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="14"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="212"/>
+      <c r="L26" s="212"/>
+      <c r="M26" s="212"/>
+      <c r="N26" s="220"/>
+      <c r="O26" s="212"/>
+      <c r="P26" s="212"/>
+      <c r="Q26" s="212"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="2:18">
+      <c r="B27" s="14"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="219"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="212"/>
+      <c r="M27" s="212"/>
+      <c r="N27" s="220"/>
+      <c r="O27" s="212"/>
+      <c r="P27" s="212"/>
+      <c r="Q27" s="212"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="2:18">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="222"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D7DB61-DC98-C247-B871-EADD615AB919}">
   <dimension ref="A1:CG27"/>
   <sheetViews>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{382ECCA8-FF31-EB4E-99F6-534586BF8AC6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB3EA9F8-D2F9-0241-AD3B-505DCAEDA79A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="旧_全体スケジュール (4月24まで)" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="217">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -1175,13 +1174,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年5月2日(火):</t>
-    <rPh sb="0" eb="1">
-      <t>ネn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MaxPooling3D</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1231,31 +1223,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年5月4日(木):</t>
+    <t>nii画像と教師ラベルのマッピング</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月5日(土):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年5月5日(土)まで:</t>
+    <t>2018年5月4日(金):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>完了タスク</t>
+    <t>2018年5月2日(水):</t>
     <rPh sb="0" eb="1">
-      <t>カンリョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・システム設計書-学習モデルの作成
-    画像データと教師ラベルのマッピング(ラベル付け)</t>
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・システム設計書-学習モデルの作成
+   </t>
+    <rPh sb="0" eb="1">
+      <t>ヨウケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・システム設計書-ユーザインターフェースの作成</t>
     <rPh sb="0" eb="2">
       <t>ガゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始タスク</t>
+    <rPh sb="0" eb="1">
+      <t>カイsh</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月6日(日)まで:</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2159,7 +2179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2679,12 +2699,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2697,12 +2822,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2715,66 +2834,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2787,62 +2846,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3159,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B35" sqref="B35:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3184,31 +3207,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
+      <c r="C3" s="207"/>
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="207" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="207"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="194" t="s">
+      <c r="C6" s="207" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="207"/>
+      <c r="F6" s="207"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -3218,10 +3241,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="194" t="s">
+      <c r="C8" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="194"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -3230,11 +3253,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="196" t="s">
+      <c r="C10" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -3252,12 +3275,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="208"/>
+      <c r="F13" s="208"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -3268,10 +3291,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="207"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -3286,11 +3309,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="196" t="s">
+      <c r="C17" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -3300,12 +3323,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="197" t="s">
+      <c r="C19" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="197"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -3317,20 +3340,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="201" t="s">
+      <c r="B22" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="202"/>
+      <c r="C22" s="191"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="175" t="s">
+      <c r="E22" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="210"/>
+      <c r="I22" s="211"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -3338,29 +3361,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="177" t="s">
+      <c r="E23" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="213"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="174"/>
+      <c r="C24" s="193"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="179" t="s">
+      <c r="E24" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="180"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -3368,13 +3391,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="181" t="s">
+      <c r="E25" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="182"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="215"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -3382,61 +3405,61 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="183" t="s">
+      <c r="E26" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="183"/>
-      <c r="G26" s="183"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="184"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="216"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="217"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="174"/>
+      <c r="C27" s="193"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="179" t="s">
+      <c r="E27" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="180"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="185"/>
+      <c r="C28" s="196"/>
       <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="186" t="s">
+      <c r="E28" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="188"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="199"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="185"/>
+      <c r="C29" s="196"/>
       <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="186" t="s">
+      <c r="E29" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="188"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="164"/>
@@ -3453,133 +3476,126 @@
       <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="185"/>
+      <c r="C31" s="196"/>
       <c r="D31" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="186" t="s">
+      <c r="E31" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="188"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="199"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="185"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="186" t="s">
+      <c r="E32" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="188"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="173" t="s">
-        <v>199</v>
-      </c>
-      <c r="C33" s="185"/>
+      <c r="B33" s="192" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="196"/>
       <c r="D33" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="186" t="s">
+      <c r="E33" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="188"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="192" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="196"/>
+      <c r="D34" s="163" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="197" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="199"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="B35" s="202" t="s">
         <v>210</v>
       </c>
-      <c r="C34" s="190"/>
-      <c r="D34" s="144" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" s="191" t="s">
-        <v>157</v>
-      </c>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192"/>
-      <c r="H34" s="192"/>
-      <c r="I34" s="193"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="B35" s="203" t="s">
+      <c r="C35" s="203"/>
+      <c r="D35" s="144" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="204" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="206"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="B36" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="204"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="160"/>
-    </row>
-    <row r="36" spans="1:9" ht="38" customHeight="1">
-      <c r="A36" s="156"/>
-      <c r="B36" s="200" t="s">
-        <v>211</v>
-      </c>
-      <c r="C36" s="198"/>
-      <c r="D36" s="157" t="s">
-        <v>212</v>
-      </c>
-      <c r="E36" s="198" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="199"/>
-      <c r="G36" s="199"/>
-      <c r="H36" s="199"/>
-      <c r="I36" s="158"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
+      <c r="C36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="159"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
+    </row>
+    <row r="37" spans="1:9" ht="38" customHeight="1">
+      <c r="A37" s="156"/>
+      <c r="B37" s="188" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" s="186"/>
+      <c r="D37" s="157" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="186" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="158"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="E38" s="82"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="E39" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E37:H37"/>
+  <mergeCells count="36">
+    <mergeCell ref="E38:H38"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3590,6 +3606,31 @@
     <mergeCell ref="E31:I31"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:I33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:I35"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3606,7 +3647,7 @@
   <dimension ref="A1:CG24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4709,11 +4750,11 @@
       <c r="U12" s="31"/>
       <c r="V12" s="31"/>
       <c r="W12" s="87"/>
-      <c r="X12" s="225"/>
-      <c r="Y12" s="226"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="224"/>
-      <c r="AB12" s="24"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="184"/>
+      <c r="AB12" s="181"/>
       <c r="AC12" s="18"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
@@ -5952,10 +5993,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="209" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="172"/>
+      <c r="B1" s="209"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -5966,14 +6007,14 @@
       <c r="B3" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="205" t="s">
+      <c r="C3" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="206"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="219"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="106">
@@ -5988,11 +6029,11 @@
       <c r="D4" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="207" t="s">
+      <c r="E4" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
       <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8">
@@ -6233,12 +6274,12 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="202" t="s">
+      <c r="D21" s="191" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="208"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="221"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
       <c r="J21" s="99"/>
@@ -6329,10 +6370,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD44D091-AEF9-7E47-93FF-3C69DC304087}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6352,11 +6393,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="209" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="166" t="s">
@@ -6603,11 +6644,45 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="169" t="s">
+    <row r="15" spans="1:11" s="172" customFormat="1">
+      <c r="A15" s="172">
+        <v>6</v>
+      </c>
+      <c r="B15" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="172" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="168"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="170"/>
+    </row>
+    <row r="16" spans="1:11" s="172" customFormat="1">
+      <c r="F16" s="168"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="170"/>
+    </row>
+    <row r="17" spans="1:8" s="172" customFormat="1">
+      <c r="F17" s="168"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="170"/>
+    </row>
+    <row r="18" spans="1:8" s="172" customFormat="1">
+      <c r="F18" s="168"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="170"/>
+    </row>
+    <row r="19" spans="1:8" s="172" customFormat="1">
+      <c r="F19" s="168"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="170"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="169" t="s">
         <v>176</v>
       </c>
-      <c r="B17" s="166" t="s">
+      <c r="B22" s="166" t="s">
         <v>161</v>
       </c>
     </row>
@@ -6648,465 +6723,465 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" ht="27">
-      <c r="B4" s="215" t="s">
+      <c r="B4" s="222" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="223"/>
+      <c r="D4" s="223"/>
+      <c r="E4" s="223"/>
+      <c r="F4" s="227" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="214" t="s">
+      <c r="G4" s="228"/>
+      <c r="H4" s="228"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228"/>
+      <c r="M4" s="228"/>
+      <c r="N4" s="228"/>
+      <c r="O4" s="224" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="217" t="s">
-        <v>209</v>
-      </c>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="217"/>
-      <c r="R4" s="218"/>
+      <c r="P4" s="224"/>
+      <c r="Q4" s="224"/>
+      <c r="R4" s="225"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="14"/>
-      <c r="C5" s="212"/>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="212"/>
-      <c r="H5" s="212"/>
-      <c r="I5" s="212"/>
-      <c r="J5" s="212"/>
-      <c r="K5" s="212"/>
-      <c r="L5" s="212"/>
-      <c r="M5" s="212"/>
-      <c r="N5" s="220"/>
-      <c r="O5" s="212"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="212"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="176"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
+      <c r="K5" s="175"/>
+      <c r="L5" s="175"/>
+      <c r="M5" s="175"/>
+      <c r="N5" s="177"/>
+      <c r="O5" s="175"/>
+      <c r="P5" s="175"/>
+      <c r="Q5" s="175"/>
       <c r="R5" s="19"/>
     </row>
     <row r="6" spans="2:18">
       <c r="B6" s="14"/>
-      <c r="C6" s="212"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="221"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="212"/>
-      <c r="I6" s="212"/>
-      <c r="J6" s="212"/>
-      <c r="K6" s="212"/>
-      <c r="L6" s="212"/>
-      <c r="M6" s="212"/>
-      <c r="N6" s="220"/>
-      <c r="O6" s="212"/>
-      <c r="P6" s="212"/>
-      <c r="Q6" s="212"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
       <c r="R6" s="19"/>
     </row>
     <row r="7" spans="2:18">
       <c r="B7" s="14"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="219"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="10"/>
-      <c r="H7" s="212"/>
-      <c r="I7" s="212"/>
-      <c r="J7" s="212"/>
-      <c r="K7" s="212"/>
-      <c r="L7" s="212"/>
-      <c r="M7" s="212"/>
-      <c r="N7" s="220"/>
-      <c r="O7" s="212"/>
-      <c r="P7" s="212"/>
-      <c r="Q7" s="212"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="177"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="175"/>
+      <c r="Q7" s="175"/>
       <c r="R7" s="19"/>
     </row>
     <row r="8" spans="2:18">
       <c r="B8" s="14"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="219"/>
-      <c r="G8" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="H8" s="209"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="212"/>
-      <c r="L8" s="212"/>
-      <c r="M8" s="212"/>
-      <c r="N8" s="220"/>
-      <c r="O8" s="212"/>
-      <c r="P8" s="212"/>
-      <c r="Q8" s="212"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="226" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="226"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
       <c r="R8" s="19"/>
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="14"/>
-      <c r="C9" s="209" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H9" s="209"/>
-      <c r="I9" s="212"/>
-      <c r="J9" s="212"/>
-      <c r="K9" s="212"/>
-      <c r="L9" s="212"/>
-      <c r="M9" s="212"/>
-      <c r="N9" s="220"/>
-      <c r="O9" s="212"/>
-      <c r="P9" s="212"/>
-      <c r="Q9" s="212"/>
+      <c r="C9" s="226" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="226"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="226"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
       <c r="R9" s="19"/>
     </row>
     <row r="10" spans="2:18">
       <c r="B10" s="14"/>
-      <c r="C10" s="212"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="212"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="H10" s="209"/>
-      <c r="I10" s="212"/>
-      <c r="J10" s="212"/>
-      <c r="K10" s="212"/>
-      <c r="L10" s="212"/>
-      <c r="M10" s="212"/>
-      <c r="N10" s="220"/>
-      <c r="O10" s="212"/>
-      <c r="P10" s="212"/>
-      <c r="Q10" s="212"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="226" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="226"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
       <c r="R10" s="19"/>
     </row>
     <row r="11" spans="2:18">
       <c r="B11" s="14"/>
-      <c r="C11" s="212"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="212"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H11" s="209"/>
-      <c r="I11" s="212"/>
-      <c r="J11" s="212"/>
-      <c r="K11" s="212"/>
-      <c r="L11" s="212"/>
-      <c r="M11" s="212"/>
-      <c r="N11" s="220"/>
-      <c r="O11" s="212"/>
-      <c r="P11" s="212"/>
-      <c r="Q11" s="212"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H11" s="226"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
       <c r="R11" s="19"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="14"/>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="219"/>
-      <c r="G12" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H12" s="209"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
-      <c r="L12" s="212"/>
-      <c r="M12" s="212"/>
-      <c r="N12" s="220"/>
-      <c r="O12" s="212"/>
-      <c r="P12" s="212"/>
-      <c r="Q12" s="212"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="226"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
       <c r="R12" s="19"/>
     </row>
     <row r="13" spans="2:18">
       <c r="B13" s="14"/>
-      <c r="C13" s="212"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H13" s="209"/>
-      <c r="I13" s="212"/>
-      <c r="J13" s="212"/>
-      <c r="K13" s="212"/>
-      <c r="L13" s="212"/>
-      <c r="M13" s="212"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="212"/>
-      <c r="P13" s="212"/>
-      <c r="Q13" s="212"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="226"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
       <c r="R13" s="19"/>
     </row>
     <row r="14" spans="2:18">
       <c r="B14" s="14"/>
-      <c r="C14" s="212"/>
-      <c r="D14" s="212"/>
-      <c r="E14" s="212"/>
-      <c r="F14" s="219"/>
-      <c r="G14" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="H14" s="209"/>
-      <c r="I14" s="212"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="226" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="226"/>
+      <c r="I14" s="175"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="212"/>
-      <c r="M14" s="212"/>
-      <c r="N14" s="222"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="179"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="212"/>
+      <c r="Q14" s="175"/>
       <c r="R14" s="19"/>
     </row>
     <row r="15" spans="2:18">
       <c r="B15" s="14"/>
-      <c r="C15" s="212"/>
-      <c r="D15" s="212"/>
-      <c r="E15" s="212"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="210"/>
-      <c r="H15" s="211"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="173"/>
+      <c r="H15" s="174"/>
       <c r="I15" s="6"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="212"/>
+      <c r="K15" s="175"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="223"/>
-      <c r="O15" s="212"/>
-      <c r="P15" s="212"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="180"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="19"/>
     </row>
     <row r="16" spans="2:18">
       <c r="B16" s="14"/>
-      <c r="C16" s="212"/>
-      <c r="D16" s="212"/>
-      <c r="E16" s="212"/>
-      <c r="F16" s="219"/>
-      <c r="G16" s="212"/>
-      <c r="H16" s="212"/>
-      <c r="I16" s="212"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="209"/>
-      <c r="M16" s="212"/>
-      <c r="N16" s="223"/>
-      <c r="O16" s="212"/>
-      <c r="P16" s="209" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q16" s="209"/>
+      <c r="K16" s="226" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="226"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="180"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="226" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q16" s="226"/>
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="14"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="212"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="175"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="209" t="s">
-        <v>205</v>
-      </c>
-      <c r="L17" s="209"/>
-      <c r="M17" s="212"/>
-      <c r="N17" s="223"/>
-      <c r="O17" s="212"/>
-      <c r="P17" s="212"/>
-      <c r="Q17" s="212"/>
+      <c r="K17" s="226" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="226"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="180"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
       <c r="R17" s="19"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="14"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="219"/>
-      <c r="G18" s="212"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="175"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="212"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="212"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
       <c r="L18" s="12"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="223"/>
-      <c r="O18" s="212"/>
-      <c r="P18" s="212"/>
-      <c r="Q18" s="212"/>
+      <c r="N18" s="180"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
       <c r="R18" s="19"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="14"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="219"/>
-      <c r="G19" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="H19" s="209"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="212"/>
-      <c r="K19" s="212"/>
-      <c r="L19" s="212"/>
-      <c r="M19" s="212"/>
-      <c r="N19" s="220"/>
-      <c r="O19" s="212"/>
-      <c r="P19" s="212"/>
-      <c r="Q19" s="212"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="226" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="226"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
       <c r="R19" s="19"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="14"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="219"/>
-      <c r="G20" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H20" s="209"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="212"/>
-      <c r="N20" s="220"/>
-      <c r="O20" s="212"/>
-      <c r="P20" s="212"/>
-      <c r="Q20" s="212"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="226"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
       <c r="R20" s="19"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="14"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="209" t="s">
-        <v>200</v>
-      </c>
-      <c r="H21" s="209"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="212"/>
-      <c r="K21" s="212"/>
-      <c r="L21" s="212"/>
-      <c r="M21" s="212"/>
-      <c r="N21" s="220"/>
-      <c r="O21" s="212"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="212"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="226" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="226"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
       <c r="R21" s="19"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="14"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="219"/>
-      <c r="G22" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H22" s="209"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="212"/>
-      <c r="K22" s="212"/>
-      <c r="L22" s="212"/>
-      <c r="M22" s="212"/>
-      <c r="N22" s="220"/>
-      <c r="O22" s="212"/>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="212"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H22" s="226"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
       <c r="R22" s="19"/>
     </row>
     <row r="23" spans="2:18">
       <c r="B23" s="14"/>
-      <c r="C23" s="212"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="219"/>
-      <c r="G23" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" s="209"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="212"/>
-      <c r="K23" s="212"/>
-      <c r="L23" s="212"/>
-      <c r="M23" s="212"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="212"/>
-      <c r="P23" s="212"/>
-      <c r="Q23" s="212"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="226" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" s="226"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
       <c r="R23" s="19"/>
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="14"/>
-      <c r="C24" s="209" t="s">
+      <c r="C24" s="226" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="226"/>
+      <c r="E24" s="173"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="226" t="s">
         <v>203</v>
       </c>
-      <c r="D24" s="209"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="209" t="s">
-        <v>204</v>
-      </c>
-      <c r="H24" s="209"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="212"/>
-      <c r="K24" s="212"/>
-      <c r="L24" s="212"/>
-      <c r="M24" s="212"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="212"/>
-      <c r="P24" s="212"/>
-      <c r="Q24" s="212"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
       <c r="R24" s="19"/>
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="14"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="212"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="209" t="s">
-        <v>201</v>
-      </c>
-      <c r="H25" s="209"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="212"/>
-      <c r="K25" s="212"/>
-      <c r="L25" s="212"/>
-      <c r="M25" s="212"/>
-      <c r="N25" s="220"/>
-      <c r="O25" s="212"/>
-      <c r="P25" s="212"/>
-      <c r="Q25" s="212"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="226" t="s">
+        <v>200</v>
+      </c>
+      <c r="H25" s="226"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
       <c r="R25" s="19"/>
     </row>
     <row r="26" spans="2:18">
@@ -7114,37 +7189,37 @@
       <c r="C26" s="19"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="221"/>
+      <c r="F26" s="178"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="212"/>
-      <c r="L26" s="212"/>
-      <c r="M26" s="212"/>
-      <c r="N26" s="220"/>
-      <c r="O26" s="212"/>
-      <c r="P26" s="212"/>
-      <c r="Q26" s="212"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
       <c r="R26" s="19"/>
     </row>
     <row r="27" spans="2:18">
       <c r="B27" s="14"/>
-      <c r="C27" s="212"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="219"/>
-      <c r="G27" s="212"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="212"/>
-      <c r="K27" s="212"/>
-      <c r="L27" s="212"/>
-      <c r="M27" s="212"/>
-      <c r="N27" s="220"/>
-      <c r="O27" s="212"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="212"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
       <c r="R27" s="19"/>
     </row>
     <row r="28" spans="2:18">
@@ -7152,7 +7227,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="221"/>
+      <c r="F28" s="178"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7160,7 +7235,7 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="222"/>
+      <c r="N28" s="179"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
@@ -7168,25 +7243,25 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="F4:N4"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C24:D24"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G10:H10"/>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EB3EA9F8-D2F9-0241-AD3B-505DCAEDA79A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{085FC0C4-5F63-0947-92FE-2604AC4D5EAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="4720" yWindow="1540" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="218">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -1259,21 +1259,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・システム設計書-ユーザインターフェースの作成</t>
+    <t xml:space="preserve">・学習モデルのコーディング
+   </t>
+    <rPh sb="0" eb="1">
+      <t>ヨウケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2018年5月7日(月):</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・学習モデルのコーディング</t>
     <rPh sb="0" eb="2">
       <t>ガゾ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開始タスク</t>
-    <rPh sb="0" eb="1">
-      <t>カイsh</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2018年5月6日(日)まで:</t>
+    <t>2018年5月6日(日):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
     </rPh>
@@ -2735,6 +2743,81 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2747,93 +2830,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2846,6 +2854,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2856,9 +2867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3182,10 +3190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:C35"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3253,11 +3261,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
+      <c r="D10" s="209"/>
+      <c r="E10" s="209"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -3309,11 +3317,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="189" t="s">
+      <c r="C17" s="209" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="189"/>
-      <c r="E17" s="189"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -3323,12 +3331,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="185" t="s">
+      <c r="C19" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="185"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="185"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -3340,20 +3348,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="214" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="191"/>
+      <c r="C22" s="215"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="210" t="s">
+      <c r="E22" s="188" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="210"/>
-      <c r="I22" s="211"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="189"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -3361,29 +3369,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="212" t="s">
+      <c r="E23" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="213"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="191"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="192" t="s">
+      <c r="B24" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="193"/>
+      <c r="C24" s="187"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="194" t="s">
+      <c r="E24" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="194"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
-      <c r="I24" s="195"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -3391,13 +3399,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="214" t="s">
+      <c r="E25" s="194" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="215"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="195"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -3405,61 +3413,61 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="216" t="s">
+      <c r="E26" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="216"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="217"/>
+      <c r="F26" s="196"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="196"/>
+      <c r="I26" s="197"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="192" t="s">
+      <c r="B27" s="186" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="193"/>
+      <c r="C27" s="187"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="194" t="s">
+      <c r="E27" s="192" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
+      <c r="F27" s="192"/>
+      <c r="G27" s="192"/>
+      <c r="H27" s="192"/>
+      <c r="I27" s="193"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="186" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="196"/>
+      <c r="C28" s="198"/>
       <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="197" t="s">
+      <c r="E28" s="199" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="199"/>
+      <c r="F28" s="200"/>
+      <c r="G28" s="200"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="201"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="196"/>
+      <c r="C29" s="198"/>
       <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="197" t="s">
+      <c r="E29" s="199" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="199"/>
+      <c r="F29" s="200"/>
+      <c r="G29" s="200"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="201"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="164"/>
@@ -3476,126 +3484,165 @@
       <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="196"/>
+      <c r="C31" s="198"/>
       <c r="D31" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="197" t="s">
+      <c r="E31" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="199"/>
+      <c r="F31" s="200"/>
+      <c r="G31" s="200"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="201"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="192" t="s">
+      <c r="B32" s="186" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="196"/>
+      <c r="C32" s="198"/>
       <c r="D32" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="197" t="s">
+      <c r="E32" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="201"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="186" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="196"/>
+      <c r="C33" s="198"/>
       <c r="D33" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="197" t="s">
+      <c r="E33" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="201"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="B34" s="192" t="s">
+      <c r="B34" s="186" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="196"/>
+      <c r="C34" s="198"/>
       <c r="D34" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="197" t="s">
+      <c r="E34" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="198"/>
-      <c r="I34" s="199"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="202" t="s">
+      <c r="B35" s="186" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="203"/>
-      <c r="D35" s="144" t="s">
+      <c r="C35" s="198"/>
+      <c r="D35" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="204" t="s">
+      <c r="E35" s="199" t="s">
         <v>213</v>
       </c>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="206"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="201"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="200" t="s">
+      <c r="B36" s="202" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="203"/>
+      <c r="D36" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="204" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
+      <c r="I36" s="206"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="B37" s="216" t="s">
         <v>147</v>
       </c>
-      <c r="C36" s="201"/>
-      <c r="D36" s="201"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="159"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="160"/>
-    </row>
-    <row r="37" spans="1:9" ht="38" customHeight="1">
-      <c r="A37" s="156"/>
-      <c r="B37" s="188" t="s">
+      <c r="C37" s="217"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="160"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="156"/>
+      <c r="B38" s="213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C38" s="211"/>
+      <c r="D38" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="211" t="s">
         <v>216</v>
       </c>
-      <c r="C37" s="186"/>
-      <c r="D37" s="157" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="186" t="s">
-        <v>214</v>
-      </c>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="158"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="F38" s="212"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="158"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="E39" s="82"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="E40" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="38">
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="E38:H38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E39:H39"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3608,29 +3655,8 @@
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="E35:I35"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="E36:I36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3646,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F2193D-889A-8148-8401-F8C12A62DB6A}">
   <dimension ref="A1:CG24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4735,7 +4761,7 @@
         <v>43219</v>
       </c>
       <c r="J12" s="23">
-        <v>43224</v>
+        <v>43225</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="43"/>
@@ -4754,8 +4780,8 @@
       <c r="Y12" s="183"/>
       <c r="Z12" s="184"/>
       <c r="AA12" s="184"/>
-      <c r="AB12" s="181"/>
-      <c r="AC12" s="18"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
       <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="18"/>
@@ -4829,10 +4855,10 @@
         <v>10</v>
       </c>
       <c r="I13" s="28">
-        <v>43225</v>
+        <v>43244</v>
       </c>
       <c r="J13" s="29">
-        <v>43226</v>
+        <v>43245</v>
       </c>
       <c r="K13" s="27"/>
       <c r="L13" s="33"/>
@@ -4852,8 +4878,8 @@
       <c r="Z13" s="91"/>
       <c r="AA13" s="91"/>
       <c r="AB13" s="91"/>
-      <c r="AC13" s="154"/>
-      <c r="AD13" s="154"/>
+      <c r="AC13" s="91"/>
+      <c r="AD13" s="91"/>
       <c r="AE13" s="31"/>
       <c r="AF13" s="31"/>
       <c r="AG13" s="31"/>
@@ -4871,8 +4897,8 @@
       <c r="AS13" s="31"/>
       <c r="AT13" s="31"/>
       <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
+      <c r="AV13" s="154"/>
+      <c r="AW13" s="154"/>
       <c r="AX13" s="31"/>
       <c r="AY13" s="31"/>
       <c r="AZ13" s="31"/>
@@ -5021,10 +5047,10 @@
         <v>11</v>
       </c>
       <c r="I15" s="22">
-        <v>43227</v>
+        <v>43226</v>
       </c>
       <c r="J15" s="23">
-        <v>43240</v>
+        <v>43238</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="43"/>
@@ -5045,7 +5071,7 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
       <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
+      <c r="AD15" s="181"/>
       <c r="AE15" s="24"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="24"/>
@@ -5058,8 +5084,8 @@
       <c r="AN15" s="24"/>
       <c r="AO15" s="24"/>
       <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
+      <c r="AQ15" s="18"/>
+      <c r="AR15" s="18"/>
       <c r="AS15" s="18"/>
       <c r="AT15" s="18"/>
       <c r="AU15" s="18"/>
@@ -5118,10 +5144,10 @@
         <v>25</v>
       </c>
       <c r="I16" s="28">
-        <v>43239</v>
+        <v>43237</v>
       </c>
       <c r="J16" s="29">
-        <v>43245</v>
+        <v>43243</v>
       </c>
       <c r="K16" s="27"/>
       <c r="L16" s="33"/>
@@ -5146,22 +5172,22 @@
       <c r="AE16" s="31"/>
       <c r="AF16" s="31"/>
       <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="91"/>
-      <c r="AK16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="30"/>
       <c r="AQ16" s="30"/>
       <c r="AR16" s="30"/>
       <c r="AS16" s="30"/>
       <c r="AT16" s="30"/>
       <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
+      <c r="AV16" s="31"/>
+      <c r="AW16" s="31"/>
       <c r="AX16" s="31"/>
       <c r="AY16" s="31"/>
       <c r="AZ16" s="31"/>
@@ -5993,10 +6019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="185" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="209"/>
+      <c r="B1" s="185"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -6274,11 +6300,11 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="191" t="s">
+      <c r="D21" s="215" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
       <c r="G21" s="221"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
@@ -6393,11 +6419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="209"/>
-      <c r="C1" s="209"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="166" t="s">
@@ -6711,9 +6737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5A3493-0BD5-874D-BE8A-8D1E3644ED0E}">
   <dimension ref="B4:R28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
@@ -6723,12 +6747,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:18" ht="27">
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="223" t="s">
         <v>206</v>
       </c>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
-      <c r="E4" s="223"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
       <c r="F4" s="227" t="s">
         <v>207</v>
       </c>
@@ -6740,12 +6764,12 @@
       <c r="L4" s="228"/>
       <c r="M4" s="228"/>
       <c r="N4" s="228"/>
-      <c r="O4" s="224" t="s">
+      <c r="O4" s="225" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="224"/>
-      <c r="Q4" s="224"/>
-      <c r="R4" s="225"/>
+      <c r="P4" s="225"/>
+      <c r="Q4" s="225"/>
+      <c r="R4" s="226"/>
     </row>
     <row r="5" spans="2:18">
       <c r="B5" s="14"/>
@@ -6810,10 +6834,10 @@
       <c r="D8" s="175"/>
       <c r="E8" s="175"/>
       <c r="F8" s="176"/>
-      <c r="G8" s="226" t="s">
+      <c r="G8" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="H8" s="226"/>
+      <c r="H8" s="222"/>
       <c r="I8" s="175"/>
       <c r="J8" s="175"/>
       <c r="K8" s="175"/>
@@ -6827,16 +6851,16 @@
     </row>
     <row r="9" spans="2:18">
       <c r="B9" s="14"/>
-      <c r="C9" s="226" t="s">
+      <c r="C9" s="222" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="226"/>
+      <c r="D9" s="222"/>
       <c r="E9" s="173"/>
       <c r="F9" s="176"/>
-      <c r="G9" s="226" t="s">
+      <c r="G9" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H9" s="226"/>
+      <c r="H9" s="222"/>
       <c r="I9" s="175"/>
       <c r="J9" s="175"/>
       <c r="K9" s="175"/>
@@ -6854,10 +6878,10 @@
       <c r="D10" s="175"/>
       <c r="E10" s="175"/>
       <c r="F10" s="176"/>
-      <c r="G10" s="226" t="s">
+      <c r="G10" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="226"/>
+      <c r="H10" s="222"/>
       <c r="I10" s="175"/>
       <c r="J10" s="175"/>
       <c r="K10" s="175"/>
@@ -6875,10 +6899,10 @@
       <c r="D11" s="175"/>
       <c r="E11" s="175"/>
       <c r="F11" s="176"/>
-      <c r="G11" s="226" t="s">
+      <c r="G11" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="226"/>
+      <c r="H11" s="222"/>
       <c r="I11" s="175"/>
       <c r="J11" s="175"/>
       <c r="K11" s="175"/>
@@ -6896,10 +6920,10 @@
       <c r="D12" s="175"/>
       <c r="E12" s="175"/>
       <c r="F12" s="176"/>
-      <c r="G12" s="226" t="s">
+      <c r="G12" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="226"/>
+      <c r="H12" s="222"/>
       <c r="I12" s="175"/>
       <c r="J12" s="175"/>
       <c r="K12" s="175"/>
@@ -6917,10 +6941,10 @@
       <c r="D13" s="175"/>
       <c r="E13" s="175"/>
       <c r="F13" s="176"/>
-      <c r="G13" s="226" t="s">
+      <c r="G13" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H13" s="226"/>
+      <c r="H13" s="222"/>
       <c r="I13" s="175"/>
       <c r="J13" s="175"/>
       <c r="K13" s="175"/>
@@ -6938,10 +6962,10 @@
       <c r="D14" s="175"/>
       <c r="E14" s="175"/>
       <c r="F14" s="176"/>
-      <c r="G14" s="226" t="s">
+      <c r="G14" s="222" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="226"/>
+      <c r="H14" s="222"/>
       <c r="I14" s="175"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -6982,33 +7006,33 @@
       <c r="H16" s="175"/>
       <c r="I16" s="175"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="226" t="s">
+      <c r="K16" s="222" t="s">
         <v>200</v>
       </c>
-      <c r="L16" s="226"/>
+      <c r="L16" s="222"/>
       <c r="M16" s="175"/>
       <c r="N16" s="180"/>
       <c r="O16" s="175"/>
-      <c r="P16" s="226" t="s">
+      <c r="P16" s="222" t="s">
         <v>205</v>
       </c>
-      <c r="Q16" s="226"/>
+      <c r="Q16" s="222"/>
       <c r="R16" s="19"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="14"/>
       <c r="C17" s="175"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="226" t="s">
+      <c r="K17" s="222" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="226"/>
+      <c r="L17" s="222"/>
       <c r="M17" s="175"/>
       <c r="N17" s="180"/>
       <c r="O17" s="175"/>
@@ -7018,14 +7042,14 @@
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="14"/>
-      <c r="C18" s="175"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="175"/>
       <c r="E18" s="175"/>
       <c r="F18" s="176"/>
       <c r="G18" s="175"/>
       <c r="H18" s="5"/>
       <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="175"/>
       <c r="L18" s="12"/>
       <c r="M18" s="6"/>
@@ -7037,16 +7061,16 @@
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="14"/>
-      <c r="C19" s="175"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="175"/>
       <c r="E19" s="175"/>
       <c r="F19" s="176"/>
-      <c r="G19" s="226" t="s">
+      <c r="G19" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="226"/>
+      <c r="H19" s="222"/>
       <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="175"/>
       <c r="L19" s="175"/>
       <c r="M19" s="175"/>
@@ -7058,16 +7082,18 @@
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="14"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
+      <c r="C20" s="222" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="222"/>
       <c r="E20" s="175"/>
       <c r="F20" s="176"/>
-      <c r="G20" s="226" t="s">
+      <c r="G20" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="226"/>
+      <c r="H20" s="222"/>
       <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="175"/>
       <c r="L20" s="175"/>
       <c r="M20" s="175"/>
@@ -7083,12 +7109,12 @@
       <c r="D21" s="175"/>
       <c r="E21" s="175"/>
       <c r="F21" s="176"/>
-      <c r="G21" s="226" t="s">
+      <c r="G21" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="H21" s="226"/>
+      <c r="H21" s="222"/>
       <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="175"/>
       <c r="L21" s="175"/>
       <c r="M21" s="175"/>
@@ -7104,12 +7130,12 @@
       <c r="D22" s="175"/>
       <c r="E22" s="175"/>
       <c r="F22" s="176"/>
-      <c r="G22" s="226" t="s">
+      <c r="G22" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H22" s="226"/>
+      <c r="H22" s="222"/>
       <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="175"/>
       <c r="L22" s="175"/>
       <c r="M22" s="175"/>
@@ -7125,12 +7151,12 @@
       <c r="D23" s="175"/>
       <c r="E23" s="175"/>
       <c r="F23" s="176"/>
-      <c r="G23" s="226" t="s">
+      <c r="G23" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="226"/>
+      <c r="H23" s="222"/>
       <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="175"/>
       <c r="L23" s="175"/>
       <c r="M23" s="175"/>
@@ -7142,18 +7168,16 @@
     </row>
     <row r="24" spans="2:18">
       <c r="B24" s="14"/>
-      <c r="C24" s="226" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" s="226"/>
-      <c r="E24" s="173"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
       <c r="F24" s="176"/>
-      <c r="G24" s="226" t="s">
+      <c r="G24" s="222" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="226"/>
+      <c r="H24" s="222"/>
       <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="175"/>
       <c r="L24" s="175"/>
       <c r="M24" s="175"/>
@@ -7165,16 +7189,16 @@
     </row>
     <row r="25" spans="2:18">
       <c r="B25" s="14"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="175"/>
       <c r="D25" s="175"/>
       <c r="E25" s="175"/>
       <c r="F25" s="176"/>
-      <c r="G25" s="226" t="s">
+      <c r="G25" s="222" t="s">
         <v>200</v>
       </c>
-      <c r="H25" s="226"/>
+      <c r="H25" s="222"/>
       <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="175"/>
       <c r="L25" s="175"/>
       <c r="M25" s="175"/>
@@ -7186,14 +7210,14 @@
     </row>
     <row r="26" spans="2:18">
       <c r="B26" s="14"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="175"/>
       <c r="L26" s="175"/>
       <c r="M26" s="175"/>
@@ -7243,16 +7267,7 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="K16:L16"/>
@@ -7265,6 +7280,15 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/presentation/Presentation_YasuyukiOkubo.xlsx
+++ b/presentation/Presentation_YasuyukiOkubo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasu/school/presentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{085FC0C4-5F63-0947-92FE-2604AC4D5EAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A5542851-2A46-404C-B03B-7B3C1BC53B2E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="1540" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{81ADE092-A290-D740-9550-26BB9F95D144}"/>
   </bookViews>
   <sheets>
     <sheet name="課題と状況" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="221">
   <si>
     <t>検証</t>
     <rPh sb="0" eb="2">
@@ -1274,14 +1274,39 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・学習モデルのコーディング</t>
+    <t>2018年5月6日(日):</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>継続タスク:</t>
+    <rPh sb="0" eb="1">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・学習モデルのコーディング
+    インプットの3次元の画像データがデータによって、縦 x 横 x 幅がマチマチであったため、1次元にするには生涯があるか懸念
+   </t>
+    <rPh sb="0" eb="1">
+      <t>ヨウケn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・学習モデルのコーディング
+    インプットの次元の調査を引き続き行う
+</t>
     <rPh sb="0" eb="2">
       <t>ガゾ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018年5月6日(日):</t>
+    <t>2018年5月8日(火):</t>
     <rPh sb="0" eb="1">
       <t>ネn</t>
     </rPh>
@@ -2743,15 +2768,66 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2764,12 +2840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2782,18 +2852,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2807,39 +2865,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3190,10 +3215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A6622C-6B39-2F4D-8110-366CA37692A0}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3215,31 +3240,31 @@
       <c r="A3" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="207" t="s">
+      <c r="B3" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
     </row>
     <row r="6" spans="1:6" ht="40" customHeight="1">
       <c r="B6" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="202" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="207"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="207"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="81"/>
@@ -3249,10 +3274,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="81"/>
-      <c r="C8" s="207" t="s">
+      <c r="C8" s="202" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="207"/>
+      <c r="D8" s="202"/>
       <c r="E8" s="82" t="s">
         <v>79</v>
       </c>
@@ -3261,11 +3286,11 @@
       <c r="B10" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="209" t="s">
+      <c r="C10" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="209"/>
-      <c r="E10" s="209"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
       <c r="B11" s="81"/>
@@ -3283,12 +3308,12 @@
       <c r="B13" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="208" t="s">
+      <c r="C13" s="203" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
       <c r="B14" s="81"/>
@@ -3299,10 +3324,10 @@
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
       <c r="B15" s="81"/>
-      <c r="C15" s="207" t="s">
+      <c r="C15" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="207"/>
+      <c r="D15" s="202"/>
       <c r="E15" s="82" t="s">
         <v>79</v>
       </c>
@@ -3317,11 +3342,11 @@
       <c r="B17" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="209" t="s">
+      <c r="C17" s="189" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="209"/>
-      <c r="E17" s="209"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1">
       <c r="B18" s="81"/>
@@ -3331,12 +3356,12 @@
     </row>
     <row r="19" spans="1:9" ht="54" customHeight="1">
       <c r="B19" s="81"/>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
+      <c r="D19" s="185"/>
+      <c r="E19" s="185"/>
+      <c r="F19" s="185"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1">
       <c r="B20" s="81"/>
@@ -3348,20 +3373,20 @@
       <c r="A22" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="214" t="s">
+      <c r="B22" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="215"/>
+      <c r="C22" s="191"/>
       <c r="D22" s="105" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="188" t="s">
+      <c r="E22" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="189"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="206"/>
     </row>
     <row r="23" spans="1:9" ht="85" customHeight="1">
       <c r="B23" s="94"/>
@@ -3369,29 +3394,29 @@
       <c r="D23" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="190" t="s">
+      <c r="E23" s="207" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="191"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="207"/>
+      <c r="H23" s="207"/>
+      <c r="I23" s="208"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="B24" s="186" t="s">
+      <c r="B24" s="192" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="187"/>
+      <c r="C24" s="193"/>
       <c r="D24" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="192" t="s">
+      <c r="E24" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="193"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="195"/>
     </row>
     <row r="25" spans="1:9">
       <c r="B25" s="138"/>
@@ -3399,13 +3424,13 @@
       <c r="D25" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E25" s="194" t="s">
+      <c r="E25" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="194"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="210"/>
     </row>
     <row r="26" spans="1:9">
       <c r="B26" s="141"/>
@@ -3413,61 +3438,61 @@
       <c r="D26" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="196" t="s">
+      <c r="E26" s="211" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="196"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="212"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="B27" s="186" t="s">
+      <c r="B27" s="192" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="187"/>
+      <c r="C27" s="193"/>
       <c r="D27" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="E27" s="192" t="s">
+      <c r="E27" s="194" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="192"/>
-      <c r="G27" s="192"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="193"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="195"/>
     </row>
     <row r="28" spans="1:9" ht="102" customHeight="1">
-      <c r="B28" s="186" t="s">
+      <c r="B28" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="C28" s="198"/>
+      <c r="C28" s="196"/>
       <c r="D28" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="199" t="s">
+      <c r="E28" s="197" t="s">
         <v>143</v>
       </c>
-      <c r="F28" s="200"/>
-      <c r="G28" s="200"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="201"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="198"/>
+      <c r="I28" s="199"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="B29" s="186" t="s">
+      <c r="B29" s="192" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="198"/>
+      <c r="C29" s="196"/>
       <c r="D29" s="163" t="s">
         <v>140</v>
       </c>
-      <c r="E29" s="199" t="s">
+      <c r="E29" s="197" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="200"/>
-      <c r="G29" s="200"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="201"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="198"/>
+      <c r="I29" s="199"/>
     </row>
     <row r="30" spans="1:9">
       <c r="B30" s="164"/>
@@ -3484,165 +3509,159 @@
       <c r="I30" s="162"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="B31" s="186" t="s">
+      <c r="B31" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="C31" s="198"/>
+      <c r="C31" s="196"/>
       <c r="D31" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E31" s="199" t="s">
+      <c r="E31" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="200"/>
-      <c r="G31" s="200"/>
-      <c r="H31" s="200"/>
-      <c r="I31" s="201"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="198"/>
+      <c r="I31" s="199"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="B32" s="186" t="s">
+      <c r="B32" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="198"/>
+      <c r="C32" s="196"/>
       <c r="D32" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="199" t="s">
+      <c r="E32" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F32" s="200"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="201"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="192" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="198"/>
+      <c r="C33" s="196"/>
       <c r="D33" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E33" s="199" t="s">
+      <c r="E33" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="201"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="B34" s="186" t="s">
+      <c r="B34" s="192" t="s">
         <v>211</v>
       </c>
-      <c r="C34" s="198"/>
+      <c r="C34" s="196"/>
       <c r="D34" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="E34" s="199" t="s">
+      <c r="E34" s="197" t="s">
         <v>157</v>
       </c>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
+      <c r="F34" s="198"/>
+      <c r="G34" s="198"/>
+      <c r="H34" s="198"/>
+      <c r="I34" s="199"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="B35" s="186" t="s">
+      <c r="B35" s="192" t="s">
         <v>210</v>
       </c>
-      <c r="C35" s="198"/>
+      <c r="C35" s="196"/>
       <c r="D35" s="163" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="199" t="s">
+      <c r="E35" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="201"/>
+      <c r="F35" s="198"/>
+      <c r="G35" s="198"/>
+      <c r="H35" s="198"/>
+      <c r="I35" s="199"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="B36" s="202" t="s">
+      <c r="B36" s="192" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="196"/>
+      <c r="D36" s="163" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="197" t="s">
+        <v>214</v>
+      </c>
+      <c r="F36" s="198"/>
+      <c r="G36" s="198"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="199"/>
+    </row>
+    <row r="37" spans="1:9" ht="62" customHeight="1">
+      <c r="B37" s="213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="214"/>
+      <c r="D37" s="144" t="s">
         <v>217</v>
       </c>
-      <c r="C36" s="203"/>
-      <c r="D36" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="204" t="s">
-        <v>214</v>
-      </c>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="206"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="B37" s="216" t="s">
+      <c r="E37" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="216"/>
+      <c r="G37" s="216"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="217"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="B38" s="200" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="217"/>
-      <c r="D37" s="217"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="160"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="156"/>
-      <c r="B38" s="213" t="s">
-        <v>215</v>
-      </c>
-      <c r="C38" s="211"/>
-      <c r="D38" s="157" t="s">
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="160"/>
+    </row>
+    <row r="39" spans="1:9" ht="42" customHeight="1">
+      <c r="A39" s="156"/>
+      <c r="B39" s="188" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" s="186"/>
+      <c r="D39" s="157" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="211" t="s">
-        <v>216</v>
-      </c>
-      <c r="F38" s="212"/>
-      <c r="G38" s="212"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="158"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
-      <c r="H39" s="185"/>
+      <c r="E39" s="186" t="s">
+        <v>219</v>
+      </c>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="158"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="E40" s="82"/>
+      <c r="E40" s="204"/>
+      <c r="F40" s="204"/>
+      <c r="G40" s="204"/>
+      <c r="H40" s="204"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="E41" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E39:H39"/>
+  <mergeCells count="40">
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E40:H40"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="E22:I22"/>
     <mergeCell ref="E23:I23"/>
@@ -3655,8 +3674,32 @@
     <mergeCell ref="E33:I33"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="E35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:I37"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="E34:I34"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3673,7 +3716,7 @@
   <dimension ref="A1:CG24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5071,8 +5114,8 @@
       <c r="AA15" s="31"/>
       <c r="AB15" s="31"/>
       <c r="AC15" s="31"/>
-      <c r="AD15" s="181"/>
-      <c r="AE15" s="24"/>
+      <c r="AD15" s="184"/>
+      <c r="AE15" s="181"/>
       <c r="AF15" s="24"/>
       <c r="AG15" s="24"/>
       <c r="AH15" s="24"/>
@@ -6019,10 +6062,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="204" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="185"/>
+      <c r="B1" s="204"/>
       <c r="C1" s="86"/>
       <c r="D1" s="86"/>
     </row>
@@ -6300,11 +6343,11 @@
       <c r="C21" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="D21" s="215" t="s">
+      <c r="D21" s="191" t="s">
         <v>134</v>
       </c>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
       <c r="G21" s="221"/>
       <c r="H21" s="123"/>
       <c r="I21" s="99"/>
@@ -6419,11 +6462,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="204" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
+      <c r="B1" s="204"/>
+      <c r="C1" s="204"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="166" t="s">
@@ -7267,6 +7310,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="O4:R4"/>
@@ -7280,13 +7330,6 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G13:H13"/>
   </mergeCells>
